--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>0.9994116800937404</v>
       </c>
       <c r="E2">
-        <v>0.9608872260641262</v>
+        <v>0.9608872260641261</v>
       </c>
       <c r="F2">
-        <v>0.9620405275472214</v>
+        <v>0.9620405275472212</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>0.9989349631210341</v>
       </c>
       <c r="K2">
-        <v>1.010879217236453</v>
+        <v>1.010879217236454</v>
       </c>
       <c r="L2">
-        <v>0.9729197655382122</v>
+        <v>0.972919765538212</v>
       </c>
       <c r="M2">
-        <v>0.9740553142633221</v>
+        <v>0.9740553142633219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9833299752362729</v>
+        <v>0.9833299752362727</v>
       </c>
       <c r="D3">
         <v>1.004722926009414</v>
       </c>
       <c r="E3">
-        <v>0.9673124465814225</v>
+        <v>0.9673124465814221</v>
       </c>
       <c r="F3">
-        <v>0.9704964674183976</v>
+        <v>0.9704964674183972</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.01529573069565</v>
       </c>
       <c r="L3">
-        <v>0.978381391027794</v>
+        <v>0.9783813910277938</v>
       </c>
       <c r="M3">
-        <v>0.981521308625842</v>
+        <v>0.9815213086258416</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.008048160082903</v>
       </c>
       <c r="E4">
-        <v>0.9713510704056881</v>
+        <v>0.9713510704056878</v>
       </c>
       <c r="F4">
-        <v>0.9757987341886671</v>
+        <v>0.9757987341886669</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.01805041174865</v>
       </c>
       <c r="L4">
-        <v>0.9818080193082406</v>
+        <v>0.9818080193082401</v>
       </c>
       <c r="M4">
-        <v>0.9861982979648677</v>
+        <v>0.9861982979648674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9898002753083116</v>
+        <v>0.9898002753083112</v>
       </c>
       <c r="D5">
         <v>1.009420797259748</v>
       </c>
       <c r="E5">
-        <v>0.9730221296945376</v>
+        <v>0.9730221296945378</v>
       </c>
       <c r="F5">
-        <v>0.977989777023807</v>
+        <v>0.9779897770238065</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>0.9832243509657752</v>
       </c>
       <c r="M5">
-        <v>0.9881298331398577</v>
+        <v>0.9881298331398574</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9901156865678502</v>
+        <v>0.9901156865678509</v>
       </c>
       <c r="D6">
-        <v>1.009649824444372</v>
+        <v>1.009649824444373</v>
       </c>
       <c r="E6">
-        <v>0.9733011840580499</v>
+        <v>0.9733011840580502</v>
       </c>
       <c r="F6">
-        <v>0.9783555010552331</v>
+        <v>0.9783555010552335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040407392959517</v>
+        <v>1.040407392959518</v>
       </c>
       <c r="J6">
         <v>1.009235777613704</v>
@@ -597,10 +597,10 @@
         <v>1.019374225526874</v>
       </c>
       <c r="L6">
-        <v>0.9834607797430037</v>
+        <v>0.9834607797430042</v>
       </c>
       <c r="M6">
-        <v>0.9884521734788294</v>
+        <v>0.9884521734788297</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9879352768621854</v>
+        <v>0.9879352768621859</v>
       </c>
       <c r="D7">
-        <v>1.008066598943594</v>
+        <v>1.008066598943595</v>
       </c>
       <c r="E7">
         <v>0.9713735022747452</v>
       </c>
       <c r="F7">
-        <v>0.9758281573095358</v>
+        <v>0.9758281573095364</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039768688830017</v>
       </c>
       <c r="J7">
-        <v>1.007646511012488</v>
+        <v>1.007646511012489</v>
       </c>
       <c r="K7">
-        <v>1.018065663358166</v>
+        <v>1.018065663358167</v>
       </c>
       <c r="L7">
-        <v>0.9818270377072239</v>
+        <v>0.9818270377072242</v>
       </c>
       <c r="M7">
-        <v>0.9862242407080913</v>
+        <v>0.9862242407080918</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9785188196894714</v>
+        <v>0.9785188196894702</v>
       </c>
       <c r="D8">
-        <v>1.001230611173642</v>
+        <v>1.001230611173641</v>
       </c>
       <c r="E8">
-        <v>0.9630843513129811</v>
+        <v>0.9630843513129803</v>
       </c>
       <c r="F8">
-        <v>0.9649348848216229</v>
+        <v>0.9649348848216218</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036972690517571</v>
+        <v>1.03697269051757</v>
       </c>
       <c r="J8">
-        <v>1.000769041347367</v>
+        <v>1.000769041347366</v>
       </c>
       <c r="K8">
-        <v>1.012393938812917</v>
+        <v>1.012393938812916</v>
       </c>
       <c r="L8">
-        <v>0.9747887282540094</v>
+        <v>0.9747887282540084</v>
       </c>
       <c r="M8">
-        <v>0.9766117601670234</v>
+        <v>0.9766117601670222</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.960630565632663</v>
+        <v>0.9606305656326635</v>
       </c>
       <c r="D9">
-        <v>0.9882604229129648</v>
+        <v>0.9882604229129652</v>
       </c>
       <c r="E9">
-        <v>0.9474820067110999</v>
+        <v>0.9474820067111013</v>
       </c>
       <c r="F9">
-        <v>0.9443168765254458</v>
+        <v>0.9443168765254467</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031520960537895</v>
       </c>
       <c r="J9">
-        <v>0.9876544860621697</v>
+        <v>0.9876544860621701</v>
       </c>
       <c r="K9">
         <v>1.001546882118314</v>
       </c>
       <c r="L9">
-        <v>0.9614887829039558</v>
+        <v>0.9614887829039567</v>
       </c>
       <c r="M9">
-        <v>0.9583829608724923</v>
+        <v>0.9583829608724931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9476626221457702</v>
+        <v>0.9476626221457712</v>
       </c>
       <c r="D10">
-        <v>0.978880104986566</v>
+        <v>0.9788801049865664</v>
       </c>
       <c r="E10">
-        <v>0.936275465653878</v>
+        <v>0.9362754656538781</v>
       </c>
       <c r="F10">
-        <v>0.9294128551895466</v>
+        <v>0.929412855189547</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027479603822909</v>
       </c>
       <c r="J10">
-        <v>0.9781184695436845</v>
+        <v>0.9781184695436853</v>
       </c>
       <c r="K10">
-        <v>0.9936414512191929</v>
+        <v>0.9936414512191936</v>
       </c>
       <c r="L10">
         <v>0.95189919825813</v>
       </c>
       <c r="M10">
-        <v>0.9451853276834058</v>
+        <v>0.9451853276834064</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.941754100305419</v>
+        <v>0.9417541003054186</v>
       </c>
       <c r="D11">
-        <v>0.9746144403010769</v>
+        <v>0.9746144403010767</v>
       </c>
       <c r="E11">
         <v>0.9311957856825257</v>
       </c>
       <c r="F11">
-        <v>0.9226299810711265</v>
+        <v>0.9226299810711263</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025618717796077</v>
       </c>
       <c r="J11">
-        <v>0.9737681010296594</v>
+        <v>0.9737681010296591</v>
       </c>
       <c r="K11">
-        <v>0.9900315131105862</v>
+        <v>0.9900315131105859</v>
       </c>
       <c r="L11">
-        <v>0.9475433702383249</v>
+        <v>0.9475433702383248</v>
       </c>
       <c r="M11">
-        <v>0.9391749950469689</v>
+        <v>0.9391749950469684</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C12">
-        <v>0.9395107098959147</v>
+        <v>0.9395107098959151</v>
       </c>
       <c r="D12">
-        <v>0.9729963454608067</v>
+        <v>0.9729963454608075</v>
       </c>
       <c r="E12">
-        <v>0.9292711991523344</v>
+        <v>0.929271199152335</v>
       </c>
       <c r="F12">
-        <v>0.9200555337516513</v>
+        <v>0.9200555337516522</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024909383761136</v>
+        <v>1.024909383761137</v>
       </c>
       <c r="J12">
-        <v>0.9721156183132305</v>
+        <v>0.9721156183132309</v>
       </c>
       <c r="K12">
-        <v>0.9886598468708403</v>
+        <v>0.9886598468708411</v>
       </c>
       <c r="L12">
-        <v>0.9458916386106356</v>
+        <v>0.9458916386106362</v>
       </c>
       <c r="M12">
-        <v>0.9368932482678406</v>
+        <v>0.9368932482678415</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,31 +839,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9399942107581242</v>
+        <v>0.9399942107581244</v>
       </c>
       <c r="D13">
-        <v>0.9733450074670844</v>
+        <v>0.9733450074670846</v>
       </c>
       <c r="E13">
-        <v>0.9296858029021824</v>
+        <v>0.9296858029021822</v>
       </c>
       <c r="F13">
-        <v>0.9206103474725752</v>
+        <v>0.9206103474725753</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025062383818962</v>
+        <v>1.025062383818963</v>
       </c>
       <c r="J13">
-        <v>0.9724717948897851</v>
+        <v>0.9724717948897855</v>
       </c>
       <c r="K13">
-        <v>0.9889555143936806</v>
+        <v>0.9889555143936809</v>
       </c>
       <c r="L13">
-        <v>0.9462475262958921</v>
+        <v>0.9462475262958919</v>
       </c>
       <c r="M13">
         <v>0.9373850045240487</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9415696837752794</v>
+        <v>0.9415696837752793</v>
       </c>
       <c r="D14">
-        <v>0.9744813931892111</v>
+        <v>0.9744813931892109</v>
       </c>
       <c r="E14">
-        <v>0.9310374921709109</v>
+        <v>0.9310374921709108</v>
       </c>
       <c r="F14">
-        <v>0.9224183330469587</v>
+        <v>0.9224183330469593</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.9736322731754908</v>
       </c>
       <c r="K14">
-        <v>0.9899187756200521</v>
+        <v>0.9899187756200518</v>
       </c>
       <c r="L14">
-        <v>0.9474075470560076</v>
+        <v>0.9474075470560075</v>
       </c>
       <c r="M14">
-        <v>0.9389874201851649</v>
+        <v>0.9389874201851653</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.942533780622076</v>
+        <v>0.9425337806220764</v>
       </c>
       <c r="D15">
-        <v>0.9751770034653492</v>
+        <v>0.9751770034653495</v>
       </c>
       <c r="E15">
         <v>0.9318651900108526</v>
       </c>
       <c r="F15">
-        <v>0.9235248272371569</v>
+        <v>0.9235248272371571</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025864897850775</v>
+        <v>1.025864897850776</v>
       </c>
       <c r="J15">
-        <v>0.9743423292986365</v>
+        <v>0.9743423292986368</v>
       </c>
       <c r="K15">
-        <v>0.9905081069980871</v>
+        <v>0.9905081069980874</v>
       </c>
       <c r="L15">
-        <v>0.9481176932393028</v>
+        <v>0.9481176932393029</v>
       </c>
       <c r="M15">
-        <v>0.9399680395922307</v>
+        <v>0.9399680395922311</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9480481913496821</v>
+        <v>0.9480481913496815</v>
       </c>
       <c r="D16">
-        <v>0.9791586603992228</v>
+        <v>0.9791586603992226</v>
       </c>
       <c r="E16">
-        <v>0.9366075025784357</v>
+        <v>0.9366075025784354</v>
       </c>
       <c r="F16">
-        <v>0.9298556223357203</v>
+        <v>0.9298556223357198</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02760064814944</v>
       </c>
       <c r="J16">
-        <v>0.978402255519027</v>
+        <v>0.9784022555190267</v>
       </c>
       <c r="K16">
-        <v>0.993876872579198</v>
+        <v>0.9938768725791978</v>
       </c>
       <c r="L16">
-        <v>0.9521837296176641</v>
+        <v>0.9521837296176637</v>
       </c>
       <c r="M16">
-        <v>0.9455775891660144</v>
+        <v>0.9455775891660139</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,10 +991,10 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9514256440737637</v>
+        <v>0.9514256440737636</v>
       </c>
       <c r="D17">
-        <v>0.9815996669072146</v>
+        <v>0.9815996669072145</v>
       </c>
       <c r="E17">
         <v>0.9395190039825073</v>
@@ -1009,13 +1009,13 @@
         <v>1.028658774816196</v>
       </c>
       <c r="J17">
-        <v>0.980887515594104</v>
+        <v>0.9808875155941039</v>
       </c>
       <c r="K17">
-        <v>0.9959382003329073</v>
+        <v>0.9959382003329071</v>
       </c>
       <c r="L17">
-        <v>0.9546776463864473</v>
+        <v>0.9546776463864471</v>
       </c>
       <c r="M17">
         <v>0.9490139704329965</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.953367701372265</v>
+        <v>0.953367701372264</v>
       </c>
       <c r="D18">
-        <v>0.9830040130008983</v>
+        <v>0.9830040130008976</v>
       </c>
       <c r="E18">
-        <v>0.9411955865129722</v>
+        <v>0.9411955865129723</v>
       </c>
       <c r="F18">
-        <v>0.9359663461869336</v>
+        <v>0.9359663461869329</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029265365235403</v>
       </c>
       <c r="J18">
-        <v>0.982316031137198</v>
+        <v>0.9823160311371971</v>
       </c>
       <c r="K18">
-        <v>0.9971227133695805</v>
+        <v>0.9971227133695797</v>
       </c>
       <c r="L18">
         <v>0.9561129138997131</v>
       </c>
       <c r="M18">
-        <v>0.9509901870580847</v>
+        <v>0.9509901870580842</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9540252810656737</v>
+        <v>0.9540252810656729</v>
       </c>
       <c r="D19">
-        <v>0.9834796435456785</v>
+        <v>0.9834796435456773</v>
       </c>
       <c r="E19">
-        <v>0.941763688078546</v>
+        <v>0.9417636880785459</v>
       </c>
       <c r="F19">
-        <v>0.9367220261191307</v>
+        <v>0.9367220261191302</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029470440106554</v>
       </c>
       <c r="J19">
-        <v>0.9827996332638996</v>
+        <v>0.9827996332638989</v>
       </c>
       <c r="K19">
-        <v>0.9975236541891197</v>
+        <v>0.9975236541891186</v>
       </c>
       <c r="L19">
-        <v>0.95659910387322</v>
+        <v>0.9565991038732198</v>
       </c>
       <c r="M19">
-        <v>0.9516593831502058</v>
+        <v>0.9516593831502055</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9510661980519212</v>
+        <v>0.9510661980519216</v>
       </c>
       <c r="D20">
-        <v>0.9813398022874334</v>
+        <v>0.9813398022874339</v>
       </c>
       <c r="E20">
-        <v>0.9392088910733339</v>
+        <v>0.9392088910733345</v>
       </c>
       <c r="F20">
-        <v>0.9333220231493379</v>
+        <v>0.9333220231493385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028546353734045</v>
+        <v>1.028546353734046</v>
       </c>
       <c r="J20">
-        <v>0.9806230751154315</v>
+        <v>0.980623075115432</v>
       </c>
       <c r="K20">
-        <v>0.9957189013424518</v>
+        <v>0.9957189013424523</v>
       </c>
       <c r="L20">
-        <v>0.9544121002387511</v>
+        <v>0.9544121002387516</v>
       </c>
       <c r="M20">
-        <v>0.9486482251554701</v>
+        <v>0.9486482251554705</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9411071314107817</v>
+        <v>0.9411071314107824</v>
       </c>
       <c r="D21">
-        <v>0.9741477107798536</v>
+        <v>0.9741477107798542</v>
       </c>
       <c r="E21">
-        <v>0.9306405278698565</v>
+        <v>0.9306405278698568</v>
       </c>
       <c r="F21">
-        <v>0.9218874927597468</v>
+        <v>0.9218874927597478</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025414303795856</v>
       </c>
       <c r="J21">
-        <v>0.9732915797722517</v>
+        <v>0.9732915797722521</v>
       </c>
       <c r="K21">
-        <v>0.9896359924692337</v>
+        <v>0.9896359924692342</v>
       </c>
       <c r="L21">
-        <v>0.9470669106639116</v>
+        <v>0.947066910663912</v>
       </c>
       <c r="M21">
-        <v>0.9385169504619454</v>
+        <v>0.9385169504619461</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,13 +1184,13 @@
         <v>0.9345608549064458</v>
       </c>
       <c r="D22">
-        <v>0.969429315416718</v>
+        <v>0.9694293154167175</v>
       </c>
       <c r="E22">
-        <v>0.9250325261231603</v>
+        <v>0.9250325261231599</v>
       </c>
       <c r="F22">
-        <v>0.9143766274824416</v>
+        <v>0.9143766274824409</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023339350361545</v>
       </c>
       <c r="J22">
-        <v>0.9684684055657218</v>
+        <v>0.9684684055657217</v>
       </c>
       <c r="K22">
-        <v>0.9856317231571342</v>
+        <v>0.9856317231571341</v>
       </c>
       <c r="L22">
-        <v>0.9422512745701421</v>
+        <v>0.9422512745701418</v>
       </c>
       <c r="M22">
-        <v>0.9318591563266639</v>
+        <v>0.9318591563266633</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9380598780707364</v>
+        <v>0.938059878070737</v>
       </c>
       <c r="D23">
-        <v>0.9719503692703196</v>
+        <v>0.9719503692703202</v>
       </c>
       <c r="E23">
-        <v>0.9280277199559298</v>
+        <v>0.9280277199559299</v>
       </c>
       <c r="F23">
-        <v>0.9183908290656041</v>
+        <v>0.9183908290656043</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024449884914155</v>
       </c>
       <c r="J23">
-        <v>0.9710467534555729</v>
+        <v>0.9710467534555735</v>
       </c>
       <c r="K23">
-        <v>0.9877725091945603</v>
+        <v>0.9877725091945609</v>
       </c>
       <c r="L23">
-        <v>0.9448240528336055</v>
+        <v>0.9448240528336056</v>
       </c>
       <c r="M23">
-        <v>0.9354176775781761</v>
+        <v>0.9354176775781764</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9512287022800024</v>
+        <v>0.9512287022800021</v>
       </c>
       <c r="D24">
-        <v>0.9814572838134314</v>
+        <v>0.9814572838134312</v>
       </c>
       <c r="E24">
-        <v>0.939349084375501</v>
+        <v>0.9393490843755012</v>
       </c>
       <c r="F24">
-        <v>0.933508707160268</v>
+        <v>0.9335087071602679</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028597184622558</v>
       </c>
       <c r="J24">
-        <v>0.9807426293278135</v>
+        <v>0.9807426293278132</v>
       </c>
       <c r="K24">
-        <v>0.9958180479999921</v>
+        <v>0.995818047999992</v>
       </c>
       <c r="L24">
-        <v>0.9545321488022225</v>
+        <v>0.9545321488022226</v>
       </c>
       <c r="M24">
-        <v>0.9488135763898856</v>
+        <v>0.9488135763898855</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654249357144176</v>
+        <v>0.9654249357144173</v>
       </c>
       <c r="D25">
-        <v>0.9917337521644648</v>
+        <v>0.9917337521644647</v>
       </c>
       <c r="E25">
-        <v>0.9516465077958679</v>
+        <v>0.9516465077958682</v>
       </c>
       <c r="F25">
-        <v>0.9498349306800359</v>
+        <v>0.9498349306800358</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0329977056401</v>
+        <v>1.032997705640099</v>
       </c>
       <c r="J25">
-        <v>0.9911746687078693</v>
+        <v>0.9911746687078692</v>
       </c>
       <c r="K25">
         <v>1.004461760837508</v>
       </c>
       <c r="L25">
-        <v>0.9650448889544943</v>
+        <v>0.9650448889544946</v>
       </c>
       <c r="M25">
-        <v>0.9632653401125543</v>
+        <v>0.9632653401125542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>0.9994116800937404</v>
       </c>
       <c r="E2">
-        <v>0.9608872260641261</v>
+        <v>0.9608872260641262</v>
       </c>
       <c r="F2">
-        <v>0.9620405275472212</v>
+        <v>0.9620405275472214</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>0.9989349631210341</v>
       </c>
       <c r="K2">
-        <v>1.010879217236454</v>
+        <v>1.010879217236453</v>
       </c>
       <c r="L2">
-        <v>0.972919765538212</v>
+        <v>0.9729197655382122</v>
       </c>
       <c r="M2">
-        <v>0.9740553142633219</v>
+        <v>0.9740553142633221</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9833299752362727</v>
+        <v>0.9833299752362729</v>
       </c>
       <c r="D3">
         <v>1.004722926009414</v>
       </c>
       <c r="E3">
-        <v>0.9673124465814221</v>
+        <v>0.9673124465814225</v>
       </c>
       <c r="F3">
-        <v>0.9704964674183972</v>
+        <v>0.9704964674183976</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.01529573069565</v>
       </c>
       <c r="L3">
-        <v>0.9783813910277938</v>
+        <v>0.978381391027794</v>
       </c>
       <c r="M3">
-        <v>0.9815213086258416</v>
+        <v>0.981521308625842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.008048160082903</v>
       </c>
       <c r="E4">
-        <v>0.9713510704056878</v>
+        <v>0.9713510704056881</v>
       </c>
       <c r="F4">
-        <v>0.9757987341886669</v>
+        <v>0.9757987341886671</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.01805041174865</v>
       </c>
       <c r="L4">
-        <v>0.9818080193082401</v>
+        <v>0.9818080193082406</v>
       </c>
       <c r="M4">
-        <v>0.9861982979648674</v>
+        <v>0.9861982979648677</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9898002753083112</v>
+        <v>0.9898002753083116</v>
       </c>
       <c r="D5">
         <v>1.009420797259748</v>
       </c>
       <c r="E5">
-        <v>0.9730221296945378</v>
+        <v>0.9730221296945376</v>
       </c>
       <c r="F5">
-        <v>0.9779897770238065</v>
+        <v>0.977989777023807</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>0.9832243509657752</v>
       </c>
       <c r="M5">
-        <v>0.9881298331398574</v>
+        <v>0.9881298331398577</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9901156865678509</v>
+        <v>0.9901156865678502</v>
       </c>
       <c r="D6">
-        <v>1.009649824444373</v>
+        <v>1.009649824444372</v>
       </c>
       <c r="E6">
-        <v>0.9733011840580502</v>
+        <v>0.9733011840580499</v>
       </c>
       <c r="F6">
-        <v>0.9783555010552335</v>
+        <v>0.9783555010552331</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040407392959518</v>
+        <v>1.040407392959517</v>
       </c>
       <c r="J6">
         <v>1.009235777613704</v>
@@ -597,10 +597,10 @@
         <v>1.019374225526874</v>
       </c>
       <c r="L6">
-        <v>0.9834607797430042</v>
+        <v>0.9834607797430037</v>
       </c>
       <c r="M6">
-        <v>0.9884521734788297</v>
+        <v>0.9884521734788294</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9879352768621859</v>
+        <v>0.9879352768621854</v>
       </c>
       <c r="D7">
-        <v>1.008066598943595</v>
+        <v>1.008066598943594</v>
       </c>
       <c r="E7">
         <v>0.9713735022747452</v>
       </c>
       <c r="F7">
-        <v>0.9758281573095364</v>
+        <v>0.9758281573095358</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039768688830017</v>
       </c>
       <c r="J7">
-        <v>1.007646511012489</v>
+        <v>1.007646511012488</v>
       </c>
       <c r="K7">
-        <v>1.018065663358167</v>
+        <v>1.018065663358166</v>
       </c>
       <c r="L7">
-        <v>0.9818270377072242</v>
+        <v>0.9818270377072239</v>
       </c>
       <c r="M7">
-        <v>0.9862242407080918</v>
+        <v>0.9862242407080913</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9785188196894702</v>
+        <v>0.9785188196894714</v>
       </c>
       <c r="D8">
-        <v>1.001230611173641</v>
+        <v>1.001230611173642</v>
       </c>
       <c r="E8">
-        <v>0.9630843513129803</v>
+        <v>0.9630843513129811</v>
       </c>
       <c r="F8">
-        <v>0.9649348848216218</v>
+        <v>0.9649348848216229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03697269051757</v>
+        <v>1.036972690517571</v>
       </c>
       <c r="J8">
-        <v>1.000769041347366</v>
+        <v>1.000769041347367</v>
       </c>
       <c r="K8">
-        <v>1.012393938812916</v>
+        <v>1.012393938812917</v>
       </c>
       <c r="L8">
-        <v>0.9747887282540084</v>
+        <v>0.9747887282540094</v>
       </c>
       <c r="M8">
-        <v>0.9766117601670222</v>
+        <v>0.9766117601670234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9606305656326635</v>
+        <v>0.960630565632663</v>
       </c>
       <c r="D9">
-        <v>0.9882604229129652</v>
+        <v>0.9882604229129648</v>
       </c>
       <c r="E9">
-        <v>0.9474820067111013</v>
+        <v>0.9474820067110999</v>
       </c>
       <c r="F9">
-        <v>0.9443168765254467</v>
+        <v>0.9443168765254458</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031520960537895</v>
       </c>
       <c r="J9">
-        <v>0.9876544860621701</v>
+        <v>0.9876544860621697</v>
       </c>
       <c r="K9">
         <v>1.001546882118314</v>
       </c>
       <c r="L9">
-        <v>0.9614887829039567</v>
+        <v>0.9614887829039558</v>
       </c>
       <c r="M9">
-        <v>0.9583829608724931</v>
+        <v>0.9583829608724923</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9476626221457712</v>
+        <v>0.9476626221457702</v>
       </c>
       <c r="D10">
-        <v>0.9788801049865664</v>
+        <v>0.978880104986566</v>
       </c>
       <c r="E10">
-        <v>0.9362754656538781</v>
+        <v>0.936275465653878</v>
       </c>
       <c r="F10">
-        <v>0.929412855189547</v>
+        <v>0.9294128551895466</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027479603822909</v>
       </c>
       <c r="J10">
-        <v>0.9781184695436853</v>
+        <v>0.9781184695436845</v>
       </c>
       <c r="K10">
-        <v>0.9936414512191936</v>
+        <v>0.9936414512191929</v>
       </c>
       <c r="L10">
         <v>0.95189919825813</v>
       </c>
       <c r="M10">
-        <v>0.9451853276834064</v>
+        <v>0.9451853276834058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9417541003054186</v>
+        <v>0.941754100305419</v>
       </c>
       <c r="D11">
-        <v>0.9746144403010767</v>
+        <v>0.9746144403010769</v>
       </c>
       <c r="E11">
         <v>0.9311957856825257</v>
       </c>
       <c r="F11">
-        <v>0.9226299810711263</v>
+        <v>0.9226299810711265</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025618717796077</v>
       </c>
       <c r="J11">
-        <v>0.9737681010296591</v>
+        <v>0.9737681010296594</v>
       </c>
       <c r="K11">
-        <v>0.9900315131105859</v>
+        <v>0.9900315131105862</v>
       </c>
       <c r="L11">
-        <v>0.9475433702383248</v>
+        <v>0.9475433702383249</v>
       </c>
       <c r="M11">
-        <v>0.9391749950469684</v>
+        <v>0.9391749950469689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9395107098959151</v>
+        <v>0.9395107098959147</v>
       </c>
       <c r="D12">
-        <v>0.9729963454608075</v>
+        <v>0.9729963454608067</v>
       </c>
       <c r="E12">
-        <v>0.929271199152335</v>
+        <v>0.9292711991523344</v>
       </c>
       <c r="F12">
-        <v>0.9200555337516522</v>
+        <v>0.9200555337516513</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024909383761137</v>
+        <v>1.024909383761136</v>
       </c>
       <c r="J12">
-        <v>0.9721156183132309</v>
+        <v>0.9721156183132305</v>
       </c>
       <c r="K12">
-        <v>0.9886598468708411</v>
+        <v>0.9886598468708403</v>
       </c>
       <c r="L12">
-        <v>0.9458916386106362</v>
+        <v>0.9458916386106356</v>
       </c>
       <c r="M12">
-        <v>0.9368932482678415</v>
+        <v>0.9368932482678406</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,31 +839,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9399942107581244</v>
+        <v>0.9399942107581242</v>
       </c>
       <c r="D13">
-        <v>0.9733450074670846</v>
+        <v>0.9733450074670844</v>
       </c>
       <c r="E13">
-        <v>0.9296858029021822</v>
+        <v>0.9296858029021824</v>
       </c>
       <c r="F13">
-        <v>0.9206103474725753</v>
+        <v>0.9206103474725752</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025062383818963</v>
+        <v>1.025062383818962</v>
       </c>
       <c r="J13">
-        <v>0.9724717948897855</v>
+        <v>0.9724717948897851</v>
       </c>
       <c r="K13">
-        <v>0.9889555143936809</v>
+        <v>0.9889555143936806</v>
       </c>
       <c r="L13">
-        <v>0.9462475262958919</v>
+        <v>0.9462475262958921</v>
       </c>
       <c r="M13">
         <v>0.9373850045240487</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9415696837752793</v>
+        <v>0.9415696837752794</v>
       </c>
       <c r="D14">
-        <v>0.9744813931892109</v>
+        <v>0.9744813931892111</v>
       </c>
       <c r="E14">
-        <v>0.9310374921709108</v>
+        <v>0.9310374921709109</v>
       </c>
       <c r="F14">
-        <v>0.9224183330469593</v>
+        <v>0.9224183330469587</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.9736322731754908</v>
       </c>
       <c r="K14">
-        <v>0.9899187756200518</v>
+        <v>0.9899187756200521</v>
       </c>
       <c r="L14">
-        <v>0.9474075470560075</v>
+        <v>0.9474075470560076</v>
       </c>
       <c r="M14">
-        <v>0.9389874201851653</v>
+        <v>0.9389874201851649</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425337806220764</v>
+        <v>0.942533780622076</v>
       </c>
       <c r="D15">
-        <v>0.9751770034653495</v>
+        <v>0.9751770034653492</v>
       </c>
       <c r="E15">
         <v>0.9318651900108526</v>
       </c>
       <c r="F15">
-        <v>0.9235248272371571</v>
+        <v>0.9235248272371569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025864897850776</v>
+        <v>1.025864897850775</v>
       </c>
       <c r="J15">
-        <v>0.9743423292986368</v>
+        <v>0.9743423292986365</v>
       </c>
       <c r="K15">
-        <v>0.9905081069980874</v>
+        <v>0.9905081069980871</v>
       </c>
       <c r="L15">
-        <v>0.9481176932393029</v>
+        <v>0.9481176932393028</v>
       </c>
       <c r="M15">
-        <v>0.9399680395922311</v>
+        <v>0.9399680395922307</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9480481913496815</v>
+        <v>0.9480481913496821</v>
       </c>
       <c r="D16">
-        <v>0.9791586603992226</v>
+        <v>0.9791586603992228</v>
       </c>
       <c r="E16">
-        <v>0.9366075025784354</v>
+        <v>0.9366075025784357</v>
       </c>
       <c r="F16">
-        <v>0.9298556223357198</v>
+        <v>0.9298556223357203</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02760064814944</v>
       </c>
       <c r="J16">
-        <v>0.9784022555190267</v>
+        <v>0.978402255519027</v>
       </c>
       <c r="K16">
-        <v>0.9938768725791978</v>
+        <v>0.993876872579198</v>
       </c>
       <c r="L16">
-        <v>0.9521837296176637</v>
+        <v>0.9521837296176641</v>
       </c>
       <c r="M16">
-        <v>0.9455775891660139</v>
+        <v>0.9455775891660144</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,10 +991,10 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9514256440737636</v>
+        <v>0.9514256440737637</v>
       </c>
       <c r="D17">
-        <v>0.9815996669072145</v>
+        <v>0.9815996669072146</v>
       </c>
       <c r="E17">
         <v>0.9395190039825073</v>
@@ -1009,13 +1009,13 @@
         <v>1.028658774816196</v>
       </c>
       <c r="J17">
-        <v>0.9808875155941039</v>
+        <v>0.980887515594104</v>
       </c>
       <c r="K17">
-        <v>0.9959382003329071</v>
+        <v>0.9959382003329073</v>
       </c>
       <c r="L17">
-        <v>0.9546776463864471</v>
+        <v>0.9546776463864473</v>
       </c>
       <c r="M17">
         <v>0.9490139704329965</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.953367701372264</v>
+        <v>0.953367701372265</v>
       </c>
       <c r="D18">
-        <v>0.9830040130008976</v>
+        <v>0.9830040130008983</v>
       </c>
       <c r="E18">
-        <v>0.9411955865129723</v>
+        <v>0.9411955865129722</v>
       </c>
       <c r="F18">
-        <v>0.9359663461869329</v>
+        <v>0.9359663461869336</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029265365235403</v>
       </c>
       <c r="J18">
-        <v>0.9823160311371971</v>
+        <v>0.982316031137198</v>
       </c>
       <c r="K18">
-        <v>0.9971227133695797</v>
+        <v>0.9971227133695805</v>
       </c>
       <c r="L18">
         <v>0.9561129138997131</v>
       </c>
       <c r="M18">
-        <v>0.9509901870580842</v>
+        <v>0.9509901870580847</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9540252810656729</v>
+        <v>0.9540252810656737</v>
       </c>
       <c r="D19">
-        <v>0.9834796435456773</v>
+        <v>0.9834796435456785</v>
       </c>
       <c r="E19">
-        <v>0.9417636880785459</v>
+        <v>0.941763688078546</v>
       </c>
       <c r="F19">
-        <v>0.9367220261191302</v>
+        <v>0.9367220261191307</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029470440106554</v>
       </c>
       <c r="J19">
-        <v>0.9827996332638989</v>
+        <v>0.9827996332638996</v>
       </c>
       <c r="K19">
-        <v>0.9975236541891186</v>
+        <v>0.9975236541891197</v>
       </c>
       <c r="L19">
-        <v>0.9565991038732198</v>
+        <v>0.95659910387322</v>
       </c>
       <c r="M19">
-        <v>0.9516593831502055</v>
+        <v>0.9516593831502058</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9510661980519216</v>
+        <v>0.9510661980519212</v>
       </c>
       <c r="D20">
-        <v>0.9813398022874339</v>
+        <v>0.9813398022874334</v>
       </c>
       <c r="E20">
-        <v>0.9392088910733345</v>
+        <v>0.9392088910733339</v>
       </c>
       <c r="F20">
-        <v>0.9333220231493385</v>
+        <v>0.9333220231493379</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028546353734046</v>
+        <v>1.028546353734045</v>
       </c>
       <c r="J20">
-        <v>0.980623075115432</v>
+        <v>0.9806230751154315</v>
       </c>
       <c r="K20">
-        <v>0.9957189013424523</v>
+        <v>0.9957189013424518</v>
       </c>
       <c r="L20">
-        <v>0.9544121002387516</v>
+        <v>0.9544121002387511</v>
       </c>
       <c r="M20">
-        <v>0.9486482251554705</v>
+        <v>0.9486482251554701</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9411071314107824</v>
+        <v>0.9411071314107817</v>
       </c>
       <c r="D21">
-        <v>0.9741477107798542</v>
+        <v>0.9741477107798536</v>
       </c>
       <c r="E21">
-        <v>0.9306405278698568</v>
+        <v>0.9306405278698565</v>
       </c>
       <c r="F21">
-        <v>0.9218874927597478</v>
+        <v>0.9218874927597468</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025414303795856</v>
       </c>
       <c r="J21">
-        <v>0.9732915797722521</v>
+        <v>0.9732915797722517</v>
       </c>
       <c r="K21">
-        <v>0.9896359924692342</v>
+        <v>0.9896359924692337</v>
       </c>
       <c r="L21">
-        <v>0.947066910663912</v>
+        <v>0.9470669106639116</v>
       </c>
       <c r="M21">
-        <v>0.9385169504619461</v>
+        <v>0.9385169504619454</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,13 +1184,13 @@
         <v>0.9345608549064458</v>
       </c>
       <c r="D22">
-        <v>0.9694293154167175</v>
+        <v>0.969429315416718</v>
       </c>
       <c r="E22">
-        <v>0.9250325261231599</v>
+        <v>0.9250325261231603</v>
       </c>
       <c r="F22">
-        <v>0.9143766274824409</v>
+        <v>0.9143766274824416</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023339350361545</v>
       </c>
       <c r="J22">
-        <v>0.9684684055657217</v>
+        <v>0.9684684055657218</v>
       </c>
       <c r="K22">
-        <v>0.9856317231571341</v>
+        <v>0.9856317231571342</v>
       </c>
       <c r="L22">
-        <v>0.9422512745701418</v>
+        <v>0.9422512745701421</v>
       </c>
       <c r="M22">
-        <v>0.9318591563266633</v>
+        <v>0.9318591563266639</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.938059878070737</v>
+        <v>0.9380598780707364</v>
       </c>
       <c r="D23">
-        <v>0.9719503692703202</v>
+        <v>0.9719503692703196</v>
       </c>
       <c r="E23">
-        <v>0.9280277199559299</v>
+        <v>0.9280277199559298</v>
       </c>
       <c r="F23">
-        <v>0.9183908290656043</v>
+        <v>0.9183908290656041</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024449884914155</v>
       </c>
       <c r="J23">
-        <v>0.9710467534555735</v>
+        <v>0.9710467534555729</v>
       </c>
       <c r="K23">
-        <v>0.9877725091945609</v>
+        <v>0.9877725091945603</v>
       </c>
       <c r="L23">
-        <v>0.9448240528336056</v>
+        <v>0.9448240528336055</v>
       </c>
       <c r="M23">
-        <v>0.9354176775781764</v>
+        <v>0.9354176775781761</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9512287022800021</v>
+        <v>0.9512287022800024</v>
       </c>
       <c r="D24">
-        <v>0.9814572838134312</v>
+        <v>0.9814572838134314</v>
       </c>
       <c r="E24">
-        <v>0.9393490843755012</v>
+        <v>0.939349084375501</v>
       </c>
       <c r="F24">
-        <v>0.9335087071602679</v>
+        <v>0.933508707160268</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028597184622558</v>
       </c>
       <c r="J24">
-        <v>0.9807426293278132</v>
+        <v>0.9807426293278135</v>
       </c>
       <c r="K24">
-        <v>0.995818047999992</v>
+        <v>0.9958180479999921</v>
       </c>
       <c r="L24">
-        <v>0.9545321488022226</v>
+        <v>0.9545321488022225</v>
       </c>
       <c r="M24">
-        <v>0.9488135763898855</v>
+        <v>0.9488135763898856</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654249357144173</v>
+        <v>0.9654249357144176</v>
       </c>
       <c r="D25">
-        <v>0.9917337521644647</v>
+        <v>0.9917337521644648</v>
       </c>
       <c r="E25">
-        <v>0.9516465077958682</v>
+        <v>0.9516465077958679</v>
       </c>
       <c r="F25">
-        <v>0.9498349306800358</v>
+        <v>0.9498349306800359</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032997705640099</v>
+        <v>1.0329977056401</v>
       </c>
       <c r="J25">
-        <v>0.9911746687078692</v>
+        <v>0.9911746687078693</v>
       </c>
       <c r="K25">
         <v>1.004461760837508</v>
       </c>
       <c r="L25">
-        <v>0.9650448889544946</v>
+        <v>0.9650448889544943</v>
       </c>
       <c r="M25">
-        <v>0.9632653401125542</v>
+        <v>0.9632653401125543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.976012322869197</v>
+        <v>0.9760260411349125</v>
       </c>
       <c r="D2">
-        <v>0.9994116800937404</v>
+        <v>0.99942224964278</v>
       </c>
       <c r="E2">
-        <v>0.9608872260641262</v>
+        <v>0.960893889459002</v>
       </c>
       <c r="F2">
-        <v>0.9620405275472214</v>
+        <v>0.9620510242310343</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036219029755403</v>
+        <v>1.036224391355483</v>
       </c>
       <c r="J2">
-        <v>0.9989349631210341</v>
+        <v>0.998948242638914</v>
       </c>
       <c r="K2">
-        <v>1.010879217236453</v>
+        <v>1.010889639317967</v>
       </c>
       <c r="L2">
-        <v>0.9729197655382122</v>
+        <v>0.9729263262072569</v>
       </c>
       <c r="M2">
-        <v>0.9740553142633221</v>
+        <v>0.9740656496212416</v>
+      </c>
+      <c r="N2">
+        <v>1.001564615934649</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9833299752362729</v>
+        <v>0.9833395551193606</v>
       </c>
       <c r="D3">
-        <v>1.004722926009414</v>
+        <v>1.004730368710174</v>
       </c>
       <c r="E3">
-        <v>0.9673124465814225</v>
+        <v>0.9673174556698929</v>
       </c>
       <c r="F3">
-        <v>0.9704964674183976</v>
+        <v>0.9705038465938161</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038408561009925</v>
+        <v>1.038412341026939</v>
       </c>
       <c r="J3">
-        <v>1.004285633370442</v>
+        <v>1.004294939834199</v>
       </c>
       <c r="K3">
-        <v>1.01529573069565</v>
+        <v>1.015303079280766</v>
       </c>
       <c r="L3">
-        <v>0.978381391027794</v>
+        <v>0.9783863304455417</v>
       </c>
       <c r="M3">
-        <v>0.981521308625842</v>
+        <v>0.9815285860128239</v>
+      </c>
+      <c r="N3">
+        <v>1.005206314475824</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.987909882489802</v>
+        <v>0.9879169200816857</v>
       </c>
       <c r="D4">
-        <v>1.008048160082903</v>
+        <v>1.008053676839456</v>
       </c>
       <c r="E4">
-        <v>0.9713510704056881</v>
+        <v>0.9713550766396279</v>
       </c>
       <c r="F4">
-        <v>0.9757987341886671</v>
+        <v>0.9758042107134147</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039761229599995</v>
+        <v>1.039764033652112</v>
       </c>
       <c r="J4">
-        <v>1.007627993752036</v>
+        <v>1.007634845291575</v>
       </c>
       <c r="K4">
-        <v>1.01805041174865</v>
+        <v>1.018055863233927</v>
       </c>
       <c r="L4">
-        <v>0.9818080193082406</v>
+        <v>0.9818119735565374</v>
       </c>
       <c r="M4">
-        <v>0.9861982979648677</v>
+        <v>0.9862037042329447</v>
+      </c>
+      <c r="N4">
+        <v>1.007480387845191</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9898002753083116</v>
+        <v>0.9898062736423116</v>
       </c>
       <c r="D5">
-        <v>1.009420797259748</v>
+        <v>1.009425525638531</v>
       </c>
       <c r="E5">
-        <v>0.9730221296945376</v>
+        <v>0.9730257289840003</v>
       </c>
       <c r="F5">
-        <v>0.977989777023807</v>
+        <v>0.9779944784659327</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040315217899701</v>
+        <v>1.040317622024606</v>
       </c>
       <c r="J5">
-        <v>1.009005961324793</v>
+        <v>1.009011806223055</v>
       </c>
       <c r="K5">
-        <v>1.019185053478052</v>
+        <v>1.019189727497528</v>
       </c>
       <c r="L5">
-        <v>0.9832243509657752</v>
+        <v>0.9832279049270761</v>
       </c>
       <c r="M5">
-        <v>0.9881298331398577</v>
+        <v>0.9881344761207652</v>
+      </c>
+      <c r="N5">
+        <v>1.008417736907328</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9901156865678502</v>
+        <v>0.9901215120586693</v>
       </c>
       <c r="D6">
-        <v>1.009649824444372</v>
+        <v>1.009654421645328</v>
       </c>
       <c r="E6">
-        <v>0.9733011840580499</v>
+        <v>0.973304715838447</v>
       </c>
       <c r="F6">
-        <v>0.9783555010552331</v>
+        <v>0.9783600737409236</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040407392959517</v>
+        <v>1.040409730516385</v>
       </c>
       <c r="J6">
-        <v>1.009235777613704</v>
+        <v>1.009241454919518</v>
       </c>
       <c r="K6">
-        <v>1.019374225526874</v>
+        <v>1.019378770133374</v>
       </c>
       <c r="L6">
-        <v>0.9834607797430037</v>
+        <v>0.9834642672703645</v>
       </c>
       <c r="M6">
-        <v>0.9884521734788294</v>
+        <v>0.9884566896037712</v>
+      </c>
+      <c r="N6">
+        <v>1.00857405564039</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9879352768621854</v>
+        <v>0.9879423004550522</v>
       </c>
       <c r="D7">
-        <v>1.008066598943594</v>
+        <v>1.008072105084638</v>
       </c>
       <c r="E7">
-        <v>0.9713735022747452</v>
+        <v>0.9713775030153562</v>
       </c>
       <c r="F7">
-        <v>0.9758281573095358</v>
+        <v>0.975833623383413</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039768688830017</v>
+        <v>1.039771487498762</v>
       </c>
       <c r="J7">
-        <v>1.007646511012488</v>
+        <v>1.007653349004285</v>
       </c>
       <c r="K7">
-        <v>1.018065663358166</v>
+        <v>1.018071104378333</v>
       </c>
       <c r="L7">
-        <v>0.9818270377072239</v>
+        <v>0.9818309865540715</v>
       </c>
       <c r="M7">
-        <v>0.9862242407080913</v>
+        <v>0.98622963668839</v>
+      </c>
+      <c r="N7">
+        <v>1.007492984804718</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9785188196894714</v>
+        <v>0.9785311094311127</v>
       </c>
       <c r="D8">
-        <v>1.001230611173642</v>
+        <v>1.001240102544673</v>
       </c>
       <c r="E8">
-        <v>0.9630843513129811</v>
+        <v>0.963090440646877</v>
       </c>
       <c r="F8">
-        <v>0.9649348848216229</v>
+        <v>0.9649443024996217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036972690517571</v>
+        <v>1.036977507163013</v>
       </c>
       <c r="J8">
-        <v>1.000769041347367</v>
+        <v>1.000780952653645</v>
       </c>
       <c r="K8">
-        <v>1.012393938812917</v>
+        <v>1.012403302015937</v>
       </c>
       <c r="L8">
-        <v>0.9747887282540094</v>
+        <v>0.9747947268712304</v>
       </c>
       <c r="M8">
-        <v>0.9766117601670234</v>
+        <v>0.9766210382276328</v>
+      </c>
+      <c r="N8">
+        <v>1.002813054671284</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.960630565632663</v>
+        <v>0.9606533269005483</v>
       </c>
       <c r="D9">
-        <v>0.9882604229129648</v>
+        <v>0.9882777876986991</v>
       </c>
       <c r="E9">
-        <v>0.9474820067110999</v>
+        <v>0.9474923753831648</v>
       </c>
       <c r="F9">
-        <v>0.9443168765254458</v>
+        <v>0.9443342755784441</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031520960537895</v>
+        <v>1.031529747894037</v>
       </c>
       <c r="J9">
-        <v>0.9876544860621697</v>
+        <v>0.9876763473895769</v>
       </c>
       <c r="K9">
-        <v>1.001546882118314</v>
+        <v>1.00156395648774</v>
       </c>
       <c r="L9">
-        <v>0.9614887829039558</v>
+        <v>0.9614989581377439</v>
       </c>
       <c r="M9">
-        <v>0.9583829608724923</v>
+        <v>0.9584000324827791</v>
+      </c>
+      <c r="N9">
+        <v>0.9938832593597581</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9476626221457702</v>
+        <v>0.9476934261534362</v>
       </c>
       <c r="D10">
-        <v>0.978880104986566</v>
+        <v>0.9789034678697643</v>
       </c>
       <c r="E10">
-        <v>0.936275465653878</v>
+        <v>0.9362892291684988</v>
       </c>
       <c r="F10">
-        <v>0.9294128551895466</v>
+        <v>0.9294365003238839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027479603822909</v>
+        <v>1.027491403653368</v>
       </c>
       <c r="J10">
-        <v>0.9781184695436845</v>
+        <v>0.978147848903374</v>
       </c>
       <c r="K10">
-        <v>0.9936414512191929</v>
+        <v>0.9936643681387424</v>
       </c>
       <c r="L10">
-        <v>0.95189919825813</v>
+        <v>0.951912666367814</v>
       </c>
       <c r="M10">
-        <v>0.9451853276834058</v>
+        <v>0.9452084553227318</v>
+      </c>
+      <c r="N10">
+        <v>0.9873870196878374</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.941754100305419</v>
+        <v>0.9417887140641406</v>
       </c>
       <c r="D11">
-        <v>0.9746144403010769</v>
+        <v>0.9746406288701078</v>
       </c>
       <c r="E11">
-        <v>0.9311957856825257</v>
+        <v>0.9312111887076806</v>
       </c>
       <c r="F11">
-        <v>0.9226299810711265</v>
+        <v>0.9226566210319566</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025618717796077</v>
+        <v>1.025631933467427</v>
       </c>
       <c r="J11">
-        <v>0.9737681010296594</v>
+        <v>0.9738010044845383</v>
       </c>
       <c r="K11">
-        <v>0.9900315131105862</v>
+        <v>0.990057173357988</v>
       </c>
       <c r="L11">
-        <v>0.9475433702383249</v>
+        <v>0.9475584226123485</v>
       </c>
       <c r="M11">
-        <v>0.9391749950469689</v>
+        <v>0.9392010133880631</v>
+      </c>
+      <c r="N11">
+        <v>0.9844228771438929</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9395107098959147</v>
+        <v>0.9395467960201193</v>
       </c>
       <c r="D12">
-        <v>0.9729963454608067</v>
+        <v>0.9730236233556684</v>
       </c>
       <c r="E12">
-        <v>0.9292711991523344</v>
+        <v>0.9292872410970474</v>
       </c>
       <c r="F12">
-        <v>0.9200555337516513</v>
+        <v>0.9200833374399348</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024909383761136</v>
+        <v>1.024923144716865</v>
       </c>
       <c r="J12">
-        <v>0.9721156183132305</v>
+        <v>0.972149877426957</v>
       </c>
       <c r="K12">
-        <v>0.9886598468708403</v>
+        <v>0.9886865631933068</v>
       </c>
       <c r="L12">
-        <v>0.9458916386106356</v>
+        <v>0.9459073073658345</v>
       </c>
       <c r="M12">
-        <v>0.9368932482678406</v>
+        <v>0.9369203876505066</v>
+      </c>
+      <c r="N12">
+        <v>0.9832968905492595</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9399942107581242</v>
+        <v>0.9400299783153525</v>
       </c>
       <c r="D13">
-        <v>0.9733450074670844</v>
+        <v>0.9733720498004703</v>
       </c>
       <c r="E13">
-        <v>0.9296858029021824</v>
+        <v>0.9297017063594067</v>
       </c>
       <c r="F13">
-        <v>0.9206103474725752</v>
+        <v>0.9206378990725648</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025062383818962</v>
+        <v>1.025076026884205</v>
       </c>
       <c r="J13">
-        <v>0.9724717948897851</v>
+        <v>0.9725057609841248</v>
       </c>
       <c r="K13">
-        <v>0.9889555143936806</v>
+        <v>0.9889820024148517</v>
       </c>
       <c r="L13">
-        <v>0.9462475262958921</v>
+        <v>0.9462630614960166</v>
       </c>
       <c r="M13">
-        <v>0.9373850045240487</v>
+        <v>0.9374119011698745</v>
+      </c>
+      <c r="N13">
+        <v>0.9835395883876176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9415696837752794</v>
+        <v>0.9416044180192986</v>
       </c>
       <c r="D14">
-        <v>0.9744813931892111</v>
+        <v>0.9745076709563012</v>
       </c>
       <c r="E14">
-        <v>0.9310374921709109</v>
+        <v>0.9310529473693772</v>
       </c>
       <c r="F14">
-        <v>0.9224183330469587</v>
+        <v>0.9224450681042996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025560462771268</v>
+        <v>1.025573723103515</v>
       </c>
       <c r="J14">
-        <v>0.9736322731754908</v>
+        <v>0.9736652876969711</v>
       </c>
       <c r="K14">
-        <v>0.9899187756200521</v>
+        <v>0.989944522373891</v>
       </c>
       <c r="L14">
-        <v>0.9474075470560076</v>
+        <v>0.9474226497837995</v>
       </c>
       <c r="M14">
-        <v>0.9389874201851649</v>
+        <v>0.9390135301810157</v>
+      </c>
+      <c r="N14">
+        <v>0.9843303263877269</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.942533780622076</v>
+        <v>0.9425678860655594</v>
       </c>
       <c r="D15">
-        <v>0.9751770034653492</v>
+        <v>0.975202815604572</v>
       </c>
       <c r="E15">
-        <v>0.9318651900108526</v>
+        <v>0.9318803731389864</v>
       </c>
       <c r="F15">
-        <v>0.9235248272371569</v>
+        <v>0.9235510662552071</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025864897850775</v>
+        <v>1.025877925024368</v>
       </c>
       <c r="J15">
-        <v>0.9743423292986365</v>
+        <v>0.9743747639160875</v>
       </c>
       <c r="K15">
-        <v>0.9905081069980871</v>
+        <v>0.9905334021133718</v>
       </c>
       <c r="L15">
-        <v>0.9481176932393028</v>
+        <v>0.9481325333440407</v>
       </c>
       <c r="M15">
-        <v>0.9399680395922307</v>
+        <v>0.9399936714104056</v>
+      </c>
+      <c r="N15">
+        <v>0.9848141440539223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9480481913496821</v>
+        <v>0.9480787500641272</v>
       </c>
       <c r="D16">
-        <v>0.9791586603992228</v>
+        <v>0.9791818410025961</v>
       </c>
       <c r="E16">
-        <v>0.9366075025784357</v>
+        <v>0.9366211612150352</v>
       </c>
       <c r="F16">
-        <v>0.9298556223357203</v>
+        <v>0.9298790754488032</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02760064814944</v>
+        <v>1.027612356576158</v>
       </c>
       <c r="J16">
-        <v>0.978402255519027</v>
+        <v>0.9784314071660041</v>
       </c>
       <c r="K16">
-        <v>0.993876872579198</v>
+        <v>0.9938996123359085</v>
       </c>
       <c r="L16">
-        <v>0.9521837296176641</v>
+        <v>0.9521970962540042</v>
       </c>
       <c r="M16">
-        <v>0.9455775891660144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9456005311763406</v>
+      </c>
+      <c r="N16">
+        <v>0.9875803691155149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9514256440737637</v>
+        <v>0.9514540708326672</v>
       </c>
       <c r="D17">
-        <v>0.9815996669072146</v>
+        <v>0.981621261483496</v>
       </c>
       <c r="E17">
-        <v>0.9395190039825073</v>
+        <v>0.9395317545911811</v>
       </c>
       <c r="F17">
-        <v>0.9337349580281583</v>
+        <v>0.9337567462601404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028658774816196</v>
+        <v>1.028669687562967</v>
       </c>
       <c r="J17">
-        <v>0.980887515594104</v>
+        <v>0.9809146839250843</v>
       </c>
       <c r="K17">
-        <v>0.9959382003329073</v>
+        <v>0.9959593975684119</v>
       </c>
       <c r="L17">
-        <v>0.9546776463864473</v>
+        <v>0.9546901338072672</v>
       </c>
       <c r="M17">
-        <v>0.9490139704329965</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9490353015359665</v>
+      </c>
+      <c r="N17">
+        <v>0.9892735720450037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.953367701372265</v>
+        <v>0.9533949155403337</v>
       </c>
       <c r="D18">
-        <v>0.9830040130008983</v>
+        <v>0.983024704100984</v>
       </c>
       <c r="E18">
-        <v>0.9411955865129722</v>
+        <v>0.9412078234930895</v>
       </c>
       <c r="F18">
-        <v>0.9359663461869336</v>
+        <v>0.9359871907246433</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029265365235403</v>
+        <v>1.029275824422593</v>
       </c>
       <c r="J18">
-        <v>0.982316031137198</v>
+        <v>0.9823420680789042</v>
       </c>
       <c r="K18">
-        <v>0.9971227133695805</v>
+        <v>0.9971430310887204</v>
       </c>
       <c r="L18">
-        <v>0.9561129138997131</v>
+        <v>0.9561249034549402</v>
       </c>
       <c r="M18">
-        <v>0.9509901870580847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9510106039001641</v>
+      </c>
+      <c r="N18">
+        <v>0.9902467658088353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9540252810656737</v>
+        <v>0.9540520868003431</v>
       </c>
       <c r="D19">
-        <v>0.9834796435456785</v>
+        <v>0.9835000301045241</v>
       </c>
       <c r="E19">
-        <v>0.941763688078546</v>
+        <v>0.9417757525196624</v>
       </c>
       <c r="F19">
-        <v>0.9367220261191307</v>
+        <v>0.9367425533216339</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029470440106554</v>
+        <v>1.02948074635874</v>
       </c>
       <c r="J19">
-        <v>0.9827996332638996</v>
+        <v>0.982825288576104</v>
       </c>
       <c r="K19">
-        <v>0.9975236541891197</v>
+        <v>0.9975436753074423</v>
       </c>
       <c r="L19">
-        <v>0.95659910387322</v>
+        <v>0.9566109260966859</v>
       </c>
       <c r="M19">
-        <v>0.9516593831502058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.951679492364938</v>
+      </c>
+      <c r="N19">
+        <v>0.9905762164814262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9510661980519212</v>
+        <v>0.9510948502956634</v>
       </c>
       <c r="D20">
-        <v>0.9813398022874334</v>
+        <v>0.9813615647567494</v>
       </c>
       <c r="E20">
-        <v>0.9392088910733339</v>
+        <v>0.9392217374197522</v>
       </c>
       <c r="F20">
-        <v>0.9333220231493379</v>
+        <v>0.9333439871224799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028546353734045</v>
+        <v>1.028557350741398</v>
       </c>
       <c r="J20">
-        <v>0.9806230751154315</v>
+        <v>0.9806504535640873</v>
       </c>
       <c r="K20">
-        <v>0.9957189013424518</v>
+        <v>0.9957402619523913</v>
       </c>
       <c r="L20">
-        <v>0.9544121002387511</v>
+        <v>0.9544246804161565</v>
       </c>
       <c r="M20">
-        <v>0.9486482251554701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9486697264253235</v>
+      </c>
+      <c r="N20">
+        <v>0.9890934144415132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9411071314107817</v>
+        <v>0.9411421682857086</v>
       </c>
       <c r="D21">
-        <v>0.9741477107798536</v>
+        <v>0.9741742125466074</v>
       </c>
       <c r="E21">
-        <v>0.9306405278698565</v>
+        <v>0.9306561142022406</v>
       </c>
       <c r="F21">
-        <v>0.9218874927597468</v>
+        <v>0.9219144667814334</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025414303795856</v>
+        <v>1.025427676274625</v>
       </c>
       <c r="J21">
-        <v>0.9732915797722517</v>
+        <v>0.9733248731635419</v>
       </c>
       <c r="K21">
-        <v>0.9896359924692337</v>
+        <v>0.9896619564388637</v>
       </c>
       <c r="L21">
-        <v>0.9470669106639116</v>
+        <v>0.9470821399358457</v>
       </c>
       <c r="M21">
-        <v>0.9385169504619454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9385432907369651</v>
+      </c>
+      <c r="N21">
+        <v>0.984098182883561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9345608549064458</v>
+        <v>0.9346002426619378</v>
       </c>
       <c r="D22">
-        <v>0.969429315416718</v>
+        <v>0.9694590304438251</v>
       </c>
       <c r="E22">
-        <v>0.9250325261231603</v>
+        <v>0.9250500113696488</v>
       </c>
       <c r="F22">
-        <v>0.9143766274824416</v>
+        <v>0.9144070535951357</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023339350361545</v>
+        <v>1.023354330237089</v>
       </c>
       <c r="J22">
-        <v>0.9684684055657218</v>
+        <v>0.9685056919510058</v>
       </c>
       <c r="K22">
-        <v>0.9856317231571342</v>
+        <v>0.985660799263838</v>
       </c>
       <c r="L22">
-        <v>0.9422512745701421</v>
+        <v>0.9422683336957671</v>
       </c>
       <c r="M22">
-        <v>0.9318591563266639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9318888174445367</v>
+      </c>
+      <c r="N22">
+        <v>0.980811625684188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9380598780707364</v>
+        <v>0.9380969242595247</v>
       </c>
       <c r="D23">
-        <v>0.9719503692703196</v>
+        <v>0.9719783566428114</v>
       </c>
       <c r="E23">
-        <v>0.9280277199559298</v>
+        <v>0.9280441800861862</v>
       </c>
       <c r="F23">
-        <v>0.9183908290656041</v>
+        <v>0.9184193934741718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024449884914155</v>
+        <v>1.024464000857963</v>
       </c>
       <c r="J23">
-        <v>0.9710467534555729</v>
+        <v>0.9710818946539405</v>
       </c>
       <c r="K23">
-        <v>0.9877725091945603</v>
+        <v>0.9877999128966344</v>
       </c>
       <c r="L23">
-        <v>0.9448240528336055</v>
+        <v>0.9448401247231274</v>
       </c>
       <c r="M23">
-        <v>0.9354176775781761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.935445549111713</v>
+      </c>
+      <c r="N23">
+        <v>0.9825685614851342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9512287022800024</v>
+        <v>0.9512572525418224</v>
       </c>
       <c r="D24">
-        <v>0.9814572838134314</v>
+        <v>0.9814789703526769</v>
       </c>
       <c r="E24">
-        <v>0.939349084375501</v>
+        <v>0.9393618874130085</v>
       </c>
       <c r="F24">
-        <v>0.933508707160268</v>
+        <v>0.9335305916394248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028597184622558</v>
+        <v>1.028608143523781</v>
       </c>
       <c r="J24">
-        <v>0.9807426293278135</v>
+        <v>0.9807699127551627</v>
       </c>
       <c r="K24">
-        <v>0.9958180479999921</v>
+        <v>0.9958393347259692</v>
       </c>
       <c r="L24">
-        <v>0.9545321488022225</v>
+        <v>0.9545446870209714</v>
       </c>
       <c r="M24">
-        <v>0.9488135763898856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.948835000690808</v>
+      </c>
+      <c r="N24">
+        <v>0.989174864312296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654249357144176</v>
+        <v>0.9654448245664018</v>
       </c>
       <c r="D25">
-        <v>0.9917337521644648</v>
+        <v>0.9917489642412969</v>
       </c>
       <c r="E25">
-        <v>0.9516465077958679</v>
+        <v>0.9516556864151987</v>
       </c>
       <c r="F25">
-        <v>0.9498349306800359</v>
+        <v>0.9498501236448602</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0329977056401</v>
+        <v>1.033005409303589</v>
       </c>
       <c r="J25">
-        <v>0.9911746687078693</v>
+        <v>0.9911938189579723</v>
       </c>
       <c r="K25">
-        <v>1.004461760837508</v>
+        <v>1.004476731702378</v>
       </c>
       <c r="L25">
-        <v>0.9650448889544943</v>
+        <v>0.9650539057004621</v>
       </c>
       <c r="M25">
-        <v>0.9632653401125543</v>
+        <v>0.9632802638101631</v>
+      </c>
+      <c r="N25">
+        <v>0.996280760655635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9760260411349125</v>
+        <v>1.03015523476398</v>
       </c>
       <c r="D2">
-        <v>0.99942224964278</v>
+        <v>1.046422173413767</v>
       </c>
       <c r="E2">
-        <v>0.960893889459002</v>
+        <v>1.03050814056433</v>
       </c>
       <c r="F2">
-        <v>0.9620510242310343</v>
+        <v>1.046150011189848</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036224391355483</v>
+        <v>1.060555551873093</v>
       </c>
       <c r="J2">
-        <v>0.998948242638914</v>
+        <v>1.051469953820984</v>
       </c>
       <c r="K2">
-        <v>1.010889639317967</v>
+        <v>1.057270549127205</v>
       </c>
       <c r="L2">
-        <v>0.9729263262072569</v>
+        <v>1.041558200955954</v>
       </c>
       <c r="M2">
-        <v>0.9740656496212416</v>
+        <v>1.057001771861202</v>
       </c>
       <c r="N2">
-        <v>1.001564615934649</v>
+        <v>1.052963161760699</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9833395551193606</v>
+        <v>1.039102855450209</v>
       </c>
       <c r="D3">
-        <v>1.004730368710174</v>
+        <v>1.053665290047307</v>
       </c>
       <c r="E3">
-        <v>0.9673174556698929</v>
+        <v>1.038210701690467</v>
       </c>
       <c r="F3">
-        <v>0.9705038465938161</v>
+        <v>1.054173549453558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038412341026939</v>
+        <v>1.064042725278088</v>
       </c>
       <c r="J3">
-        <v>1.004294939834199</v>
+        <v>1.058581467948516</v>
       </c>
       <c r="K3">
-        <v>1.015303079280766</v>
+        <v>1.063654645845178</v>
       </c>
       <c r="L3">
-        <v>0.9783863304455417</v>
+        <v>1.048376943221687</v>
       </c>
       <c r="M3">
-        <v>0.9815285860128239</v>
+        <v>1.064157196458895</v>
       </c>
       <c r="N3">
-        <v>1.005206314475824</v>
+        <v>1.060084775053995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9879169200816857</v>
+        <v>1.044689062362242</v>
       </c>
       <c r="D4">
-        <v>1.008053676839456</v>
+        <v>1.0581888025536</v>
       </c>
       <c r="E4">
-        <v>0.9713550766396279</v>
+        <v>1.04301667605437</v>
       </c>
       <c r="F4">
-        <v>0.9758042107134147</v>
+        <v>1.059184725093719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039764033652112</v>
+        <v>1.066204293108321</v>
       </c>
       <c r="J4">
-        <v>1.007634845291575</v>
+        <v>1.063014805985146</v>
       </c>
       <c r="K4">
-        <v>1.018055863233927</v>
+        <v>1.067632221501842</v>
       </c>
       <c r="L4">
-        <v>0.9818119735565374</v>
+        <v>1.052622234234075</v>
       </c>
       <c r="M4">
-        <v>0.9862037042329447</v>
+        <v>1.068617699539485</v>
       </c>
       <c r="N4">
-        <v>1.007480387845191</v>
+        <v>1.064524408939147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9898062736423116</v>
+        <v>1.046992021184433</v>
       </c>
       <c r="D5">
-        <v>1.009425525638531</v>
+        <v>1.060053894370119</v>
       </c>
       <c r="E5">
-        <v>0.9730257289840003</v>
+        <v>1.044997193171764</v>
       </c>
       <c r="F5">
-        <v>0.9779944784659327</v>
+        <v>1.061250984955849</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040317622024606</v>
+        <v>1.067091625625203</v>
       </c>
       <c r="J5">
-        <v>1.009011806223055</v>
+        <v>1.064840857100035</v>
       </c>
       <c r="K5">
-        <v>1.019189727497528</v>
+        <v>1.069269975145098</v>
       </c>
       <c r="L5">
-        <v>0.9832279049270761</v>
+        <v>1.054369494671634</v>
       </c>
       <c r="M5">
-        <v>0.9881344761207652</v>
+        <v>1.070454877073627</v>
       </c>
       <c r="N5">
-        <v>1.008417736907328</v>
+        <v>1.066353053256071</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9901215120586693</v>
+        <v>1.047376118937258</v>
       </c>
       <c r="D6">
-        <v>1.009654421645328</v>
+        <v>1.060364973516777</v>
       </c>
       <c r="E6">
-        <v>0.973304715838447</v>
+        <v>1.045327464183559</v>
       </c>
       <c r="F6">
-        <v>0.9783600737409236</v>
+        <v>1.061595623796143</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040409730516385</v>
+        <v>1.067239394220273</v>
       </c>
       <c r="J6">
-        <v>1.009241454919518</v>
+        <v>1.065145316673219</v>
       </c>
       <c r="K6">
-        <v>1.019378770133374</v>
+        <v>1.069543005274444</v>
       </c>
       <c r="L6">
-        <v>0.9834642672703645</v>
+        <v>1.054660738580369</v>
       </c>
       <c r="M6">
-        <v>0.9884566896037712</v>
+        <v>1.070761187756047</v>
       </c>
       <c r="N6">
-        <v>1.00857405564039</v>
+        <v>1.06665794519677</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9879423004550522</v>
+        <v>1.044720009294719</v>
       </c>
       <c r="D7">
-        <v>1.008072105084638</v>
+        <v>1.058213864676823</v>
       </c>
       <c r="E7">
-        <v>0.9713775030153562</v>
+        <v>1.043043293262482</v>
       </c>
       <c r="F7">
-        <v>0.975833623383413</v>
+        <v>1.059212489968947</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039771487498762</v>
+        <v>1.066216232092683</v>
       </c>
       <c r="J7">
-        <v>1.007653349004285</v>
+        <v>1.063039350803975</v>
       </c>
       <c r="K7">
-        <v>1.018071104378333</v>
+        <v>1.067654237627698</v>
       </c>
       <c r="L7">
-        <v>0.9818309865540715</v>
+        <v>1.052645725295012</v>
       </c>
       <c r="M7">
-        <v>0.98622963668839</v>
+        <v>1.06864239417711</v>
       </c>
       <c r="N7">
-        <v>1.007492984804718</v>
+        <v>1.064548988614434</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9785311094311127</v>
+        <v>1.033223319679532</v>
       </c>
       <c r="D8">
-        <v>1.001240102544673</v>
+        <v>1.048905409207587</v>
       </c>
       <c r="E8">
-        <v>0.963090440646877</v>
+        <v>1.03314986324468</v>
       </c>
       <c r="F8">
-        <v>0.9649443024996217</v>
+        <v>1.048900772242988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036977507163013</v>
+        <v>1.061754540629072</v>
       </c>
       <c r="J8">
-        <v>1.000780952653645</v>
+        <v>1.053909798321009</v>
       </c>
       <c r="K8">
-        <v>1.012403302015937</v>
+        <v>1.059461298443575</v>
       </c>
       <c r="L8">
-        <v>0.9747947268712304</v>
+        <v>1.043898767622054</v>
       </c>
       <c r="M8">
-        <v>0.9766210382276328</v>
+        <v>1.059456717225868</v>
       </c>
       <c r="N8">
-        <v>1.002813054671284</v>
+        <v>1.055406471119769</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9606533269005483</v>
+        <v>1.011240181842347</v>
       </c>
       <c r="D9">
-        <v>0.9882777876986991</v>
+        <v>1.031124686514687</v>
       </c>
       <c r="E9">
-        <v>0.9474923753831648</v>
+        <v>1.0142131355809</v>
       </c>
       <c r="F9">
-        <v>0.9443342755784441</v>
+        <v>1.029204087182196</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031529747894037</v>
+        <v>1.053098305441209</v>
       </c>
       <c r="J9">
-        <v>0.9876763473895769</v>
+        <v>1.036402169903593</v>
       </c>
       <c r="K9">
-        <v>1.00156395648774</v>
+        <v>1.043732193299352</v>
       </c>
       <c r="L9">
-        <v>0.9614989581377439</v>
+        <v>1.027079747917586</v>
       </c>
       <c r="M9">
-        <v>0.9584000324827791</v>
+        <v>1.041840474063132</v>
       </c>
       <c r="N9">
-        <v>0.9938832593597581</v>
+        <v>1.037873979861846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9476934261534362</v>
+        <v>0.9951537164722493</v>
       </c>
       <c r="D10">
-        <v>0.9789034678697643</v>
+        <v>1.018136052828287</v>
       </c>
       <c r="E10">
-        <v>0.9362892291684988</v>
+        <v>1.000350796475322</v>
       </c>
       <c r="F10">
-        <v>0.9294365003238839</v>
+        <v>1.014813392883141</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027491403653368</v>
+        <v>1.046683128443377</v>
       </c>
       <c r="J10">
-        <v>0.978147848903374</v>
+        <v>1.02356094143188</v>
       </c>
       <c r="K10">
-        <v>0.9936643681387424</v>
+        <v>1.032185398152627</v>
       </c>
       <c r="L10">
-        <v>0.951912666367814</v>
+        <v>1.014713720070606</v>
       </c>
       <c r="M10">
-        <v>0.9452084553227318</v>
+        <v>1.028920240532456</v>
       </c>
       <c r="N10">
-        <v>0.9873870196878374</v>
+        <v>1.025014515372794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9417887140641406</v>
+        <v>0.9877732969730856</v>
       </c>
       <c r="D11">
-        <v>0.9746406288701078</v>
+        <v>1.012185057146456</v>
       </c>
       <c r="E11">
-        <v>0.9312111887076806</v>
+        <v>0.993991874287832</v>
       </c>
       <c r="F11">
-        <v>0.9226566210319566</v>
+        <v>1.008218729132972</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025631933467427</v>
+        <v>1.043721912561504</v>
       </c>
       <c r="J11">
-        <v>0.9738010044845383</v>
+        <v>1.017663717918138</v>
       </c>
       <c r="K11">
-        <v>0.990057173357988</v>
+        <v>1.026880782350722</v>
       </c>
       <c r="L11">
-        <v>0.9475584226123485</v>
+        <v>1.009027991527919</v>
       </c>
       <c r="M11">
-        <v>0.9392010133880631</v>
+        <v>1.022987298985445</v>
       </c>
       <c r="N11">
-        <v>0.9844228771438929</v>
+        <v>1.019108917125241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9395467960201193</v>
+        <v>0.9849617107455142</v>
       </c>
       <c r="D12">
-        <v>0.9730236233556684</v>
+        <v>1.009919516089127</v>
       </c>
       <c r="E12">
-        <v>0.9292872410970474</v>
+        <v>0.9915698324666449</v>
       </c>
       <c r="F12">
-        <v>0.9200833374399348</v>
+        <v>1.005707884250269</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024923144716865</v>
+        <v>1.042591263978667</v>
       </c>
       <c r="J12">
-        <v>0.972149877426957</v>
+        <v>1.015416441601765</v>
       </c>
       <c r="K12">
-        <v>0.9886865631933068</v>
+        <v>1.02485910977784</v>
       </c>
       <c r="L12">
-        <v>0.9459073073658345</v>
+        <v>1.006860343183247</v>
       </c>
       <c r="M12">
-        <v>0.9369203876505066</v>
+        <v>1.020726541173666</v>
       </c>
       <c r="N12">
-        <v>0.9832968905492595</v>
+        <v>1.016858449418734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9400299783153525</v>
+        <v>0.9855681223855399</v>
       </c>
       <c r="D13">
-        <v>0.9733720498004703</v>
+        <v>1.01040808230514</v>
       </c>
       <c r="E13">
-        <v>0.9297017063594067</v>
+        <v>0.9920922034390015</v>
       </c>
       <c r="F13">
-        <v>0.9206378990725648</v>
+        <v>1.006249363329841</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025076026884205</v>
+        <v>1.042835239207584</v>
       </c>
       <c r="J13">
-        <v>0.9725057609841248</v>
+        <v>1.015901170929154</v>
       </c>
       <c r="K13">
-        <v>0.9889820024148517</v>
+        <v>1.025295186308292</v>
       </c>
       <c r="L13">
-        <v>0.9462630614960166</v>
+        <v>1.007327939781712</v>
       </c>
       <c r="M13">
-        <v>0.9374119011698745</v>
+        <v>1.021214171733374</v>
       </c>
       <c r="N13">
-        <v>0.9835395883876176</v>
+        <v>1.017343867117367</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9416044180192986</v>
+        <v>0.9875423722512078</v>
       </c>
       <c r="D14">
-        <v>0.9745076709563012</v>
+        <v>1.011998948721765</v>
       </c>
       <c r="E14">
-        <v>0.9310529473693772</v>
+        <v>0.993792934417547</v>
       </c>
       <c r="F14">
-        <v>0.9224450681042996</v>
+        <v>1.008012475284876</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025573723103515</v>
+        <v>1.043629099839771</v>
       </c>
       <c r="J14">
-        <v>0.9736652876969711</v>
+        <v>1.017479155413844</v>
       </c>
       <c r="K14">
-        <v>0.989944522373891</v>
+        <v>1.026714752227645</v>
       </c>
       <c r="L14">
-        <v>0.9474226497837995</v>
+        <v>1.008849987906874</v>
       </c>
       <c r="M14">
-        <v>0.9390135301810157</v>
+        <v>1.022801626365774</v>
       </c>
       <c r="N14">
-        <v>0.9843303263877269</v>
+        <v>1.018924092521022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425678860655594</v>
+        <v>0.9887492159111996</v>
       </c>
       <c r="D15">
-        <v>0.975202815604572</v>
+        <v>1.012971639073807</v>
       </c>
       <c r="E15">
-        <v>0.9318803731389864</v>
+        <v>0.9948326388169972</v>
       </c>
       <c r="F15">
-        <v>0.9235510662552071</v>
+        <v>1.009090444175394</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025877925024368</v>
+        <v>1.044114048382048</v>
       </c>
       <c r="J15">
-        <v>0.9743747639160875</v>
+        <v>1.01844367573599</v>
       </c>
       <c r="K15">
-        <v>0.9905334021133718</v>
+        <v>1.027582413949234</v>
       </c>
       <c r="L15">
-        <v>0.9481325333440407</v>
+        <v>1.009780192729313</v>
       </c>
       <c r="M15">
-        <v>0.9399936714104056</v>
+        <v>1.023771953679805</v>
       </c>
       <c r="N15">
-        <v>0.9848141440539223</v>
+        <v>1.019889982572658</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9480787500641272</v>
+        <v>0.9956341518292945</v>
       </c>
       <c r="D16">
-        <v>0.9791818410025961</v>
+        <v>1.018523628467765</v>
       </c>
       <c r="E16">
-        <v>0.9366211612150352</v>
+        <v>1.000764777779411</v>
       </c>
       <c r="F16">
-        <v>0.9298790754488032</v>
+        <v>1.0152428573649</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027612356576158</v>
+        <v>1.046875532646631</v>
       </c>
       <c r="J16">
-        <v>0.9784314071660041</v>
+        <v>1.023944720563833</v>
       </c>
       <c r="K16">
-        <v>0.9938996123359085</v>
+        <v>1.032530577921714</v>
       </c>
       <c r="L16">
-        <v>0.9521970962540042</v>
+        <v>1.01508360045574</v>
       </c>
       <c r="M16">
-        <v>0.9456005311763406</v>
+        <v>1.029306359255084</v>
       </c>
       <c r="N16">
-        <v>0.9875803691155149</v>
+        <v>1.025398839515135</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9514540708326672</v>
+        <v>0.9998367034416763</v>
       </c>
       <c r="D17">
-        <v>0.981621261483496</v>
+        <v>1.02191484185402</v>
       </c>
       <c r="E17">
-        <v>0.9395317545911811</v>
+        <v>1.00438617472214</v>
       </c>
       <c r="F17">
-        <v>0.9337567462601404</v>
+        <v>1.019000438709756</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028669687562967</v>
+        <v>1.048556568689618</v>
       </c>
       <c r="J17">
-        <v>0.9809146839250843</v>
+        <v>1.027301158342156</v>
       </c>
       <c r="K17">
-        <v>0.9959593975684119</v>
+        <v>1.035549233775806</v>
       </c>
       <c r="L17">
-        <v>0.9546901338072672</v>
+        <v>1.018317733007163</v>
       </c>
       <c r="M17">
-        <v>0.9490353015359665</v>
+        <v>1.032683325934258</v>
       </c>
       <c r="N17">
-        <v>0.9892735720450037</v>
+        <v>1.028760043820092</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9533949155403337</v>
+        <v>1.002248548173007</v>
       </c>
       <c r="D18">
-        <v>0.983024704100984</v>
+        <v>1.023861798767306</v>
       </c>
       <c r="E18">
-        <v>0.9412078234930895</v>
+        <v>1.006464577387395</v>
       </c>
       <c r="F18">
-        <v>0.9359871907246433</v>
+        <v>1.021157618690365</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029275824422593</v>
+        <v>1.049519633668518</v>
       </c>
       <c r="J18">
-        <v>0.9823420680789042</v>
+        <v>1.02922687638056</v>
       </c>
       <c r="K18">
-        <v>0.9971430310887204</v>
+        <v>1.037280977191223</v>
       </c>
       <c r="L18">
-        <v>0.9561249034549402</v>
+        <v>1.020172649059864</v>
       </c>
       <c r="M18">
-        <v>0.9510106039001641</v>
+        <v>1.034620871410659</v>
       </c>
       <c r="N18">
-        <v>0.9902467658088353</v>
+        <v>1.030688496598994</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9540520868003431</v>
+        <v>1.003064452493243</v>
       </c>
       <c r="D19">
-        <v>0.9835000301045241</v>
+        <v>1.024520553825843</v>
       </c>
       <c r="E19">
-        <v>0.9417757525196624</v>
+        <v>1.00716768904681</v>
       </c>
       <c r="F19">
-        <v>0.9367425533216339</v>
+        <v>1.021887485224853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02948074635874</v>
+        <v>1.049845140688925</v>
       </c>
       <c r="J19">
-        <v>0.982825288576104</v>
+        <v>1.02987823293506</v>
       </c>
       <c r="K19">
-        <v>0.9975436753074423</v>
+        <v>1.037866692263584</v>
       </c>
       <c r="L19">
-        <v>0.9566109260966859</v>
+        <v>1.020799949379554</v>
       </c>
       <c r="M19">
-        <v>0.951679492364938</v>
+        <v>1.035276235675412</v>
       </c>
       <c r="N19">
-        <v>0.9905762164814262</v>
+        <v>1.031340778154512</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9510948502956634</v>
+        <v>0.9993899403600628</v>
       </c>
       <c r="D20">
-        <v>0.9813615647567494</v>
+        <v>1.021554251408588</v>
       </c>
       <c r="E20">
-        <v>0.9392217374197522</v>
+        <v>1.004001182629301</v>
       </c>
       <c r="F20">
-        <v>0.9333439871224799</v>
+        <v>1.018600904519169</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028557350741398</v>
+        <v>1.048378036006172</v>
       </c>
       <c r="J20">
-        <v>0.9806504535640873</v>
+        <v>1.026944399055469</v>
       </c>
       <c r="K20">
-        <v>0.9957402619523913</v>
+        <v>1.035228395655787</v>
       </c>
       <c r="L20">
-        <v>0.9544246804161565</v>
+        <v>1.017974039052422</v>
       </c>
       <c r="M20">
-        <v>0.9486697264253235</v>
+        <v>1.032324379202274</v>
       </c>
       <c r="N20">
-        <v>0.9890934144415132</v>
+        <v>1.028402777894297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9411421682857086</v>
+        <v>0.9869630120198846</v>
       </c>
       <c r="D21">
-        <v>0.9741742125466074</v>
+        <v>1.011532051932319</v>
       </c>
       <c r="E21">
-        <v>0.9306561142022406</v>
+        <v>0.9932938274060877</v>
       </c>
       <c r="F21">
-        <v>0.9219144667814334</v>
+        <v>1.007495034551929</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025427676274625</v>
+        <v>1.043396204005536</v>
       </c>
       <c r="J21">
-        <v>0.9733248731635419</v>
+        <v>1.017016101000352</v>
       </c>
       <c r="K21">
-        <v>0.9896619564388637</v>
+        <v>1.026298190875923</v>
       </c>
       <c r="L21">
-        <v>0.9470821399358457</v>
+        <v>1.008403373925481</v>
       </c>
       <c r="M21">
-        <v>0.9385432907369651</v>
+        <v>1.022335789003161</v>
       </c>
       <c r="N21">
-        <v>0.984098182883561</v>
+        <v>1.01846038051715</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9346002426619378</v>
+        <v>0.9787387271825413</v>
       </c>
       <c r="D22">
-        <v>0.9694590304438251</v>
+        <v>1.004908246005781</v>
       </c>
       <c r="E22">
-        <v>0.9250500113696488</v>
+        <v>0.9862100980643397</v>
       </c>
       <c r="F22">
-        <v>0.9144070535951357</v>
+        <v>1.000153453367181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023354330237089</v>
+        <v>1.040084172492101</v>
       </c>
       <c r="J22">
-        <v>0.9685056919510058</v>
+        <v>1.010441317658968</v>
       </c>
       <c r="K22">
-        <v>0.985660799263838</v>
+        <v>1.020383092653576</v>
       </c>
       <c r="L22">
-        <v>0.9422683336957671</v>
+        <v>1.002059776376296</v>
       </c>
       <c r="M22">
-        <v>0.9318888174445367</v>
+        <v>1.01572187092924</v>
       </c>
       <c r="N22">
-        <v>0.980811625684188</v>
+        <v>1.011876260229283</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9380969242595247</v>
+        <v>0.9831405438402386</v>
       </c>
       <c r="D23">
-        <v>0.9719783566428114</v>
+        <v>1.008452505321127</v>
       </c>
       <c r="E23">
-        <v>0.9280441800861862</v>
+        <v>0.9900011356488767</v>
       </c>
       <c r="F23">
-        <v>0.9184193934741718</v>
+        <v>1.004081949213783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024464000857963</v>
+        <v>1.041858195818815</v>
       </c>
       <c r="J23">
-        <v>0.9710818946539405</v>
+        <v>1.013960616457281</v>
       </c>
       <c r="K23">
-        <v>0.9877999128966344</v>
+        <v>1.023549379270849</v>
       </c>
       <c r="L23">
-        <v>0.9448401247231274</v>
+        <v>1.005455836558106</v>
       </c>
       <c r="M23">
-        <v>0.935445549111713</v>
+        <v>1.019262025614044</v>
       </c>
       <c r="N23">
-        <v>0.9825685614851342</v>
+        <v>1.015400556835559</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9512572525418224</v>
+        <v>0.999591934649201</v>
       </c>
       <c r="D24">
-        <v>0.9814789703526769</v>
+        <v>1.021717282318985</v>
       </c>
       <c r="E24">
-        <v>0.9393618874130085</v>
+        <v>1.004175248258041</v>
       </c>
       <c r="F24">
-        <v>0.9335305916394248</v>
+        <v>1.018781543111617</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028608143523781</v>
+        <v>1.048458760949204</v>
       </c>
       <c r="J24">
-        <v>0.9807699127551627</v>
+        <v>1.027105701766412</v>
       </c>
       <c r="K24">
-        <v>0.9958393347259692</v>
+        <v>1.035373457767172</v>
       </c>
       <c r="L24">
-        <v>0.9545446870209714</v>
+        <v>1.018129436458838</v>
       </c>
       <c r="M24">
-        <v>0.948835000690808</v>
+        <v>1.032486670779685</v>
       </c>
       <c r="N24">
-        <v>0.989174864312296</v>
+        <v>1.028564309673591</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654448245664018</v>
+        <v>1.017153222142748</v>
       </c>
       <c r="D25">
-        <v>0.9917489642412969</v>
+        <v>1.035904328339413</v>
       </c>
       <c r="E25">
-        <v>0.9516556864151987</v>
+        <v>1.019308250186185</v>
       </c>
       <c r="F25">
-        <v>0.9498501236448602</v>
+        <v>1.034498968772848</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033005409303589</v>
+        <v>1.055440645969776</v>
       </c>
       <c r="J25">
-        <v>0.9911938189579723</v>
+        <v>1.041116787449354</v>
       </c>
       <c r="K25">
-        <v>1.004476731702378</v>
+        <v>1.047969718727951</v>
       </c>
       <c r="L25">
-        <v>0.9650539057004621</v>
+        <v>1.031614046212148</v>
       </c>
       <c r="M25">
-        <v>0.9632802638101631</v>
+        <v>1.046584338534861</v>
       </c>
       <c r="N25">
-        <v>0.996280760655635</v>
+        <v>1.042595292705297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03015523476398</v>
+        <v>1.01832364607559</v>
       </c>
       <c r="D2">
-        <v>1.046422173413767</v>
+        <v>1.035988344309651</v>
       </c>
       <c r="E2">
-        <v>1.03050814056433</v>
+        <v>1.030591157067145</v>
       </c>
       <c r="F2">
-        <v>1.046150011189848</v>
+        <v>1.041768497153508</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060555551873093</v>
+        <v>1.050161074202464</v>
       </c>
       <c r="J2">
-        <v>1.051469953820984</v>
+        <v>1.039969779401902</v>
       </c>
       <c r="K2">
-        <v>1.057270549127205</v>
+        <v>1.046968078196752</v>
       </c>
       <c r="L2">
-        <v>1.041558200955954</v>
+        <v>1.041640145142793</v>
       </c>
       <c r="M2">
-        <v>1.057001771861202</v>
+        <v>1.052675055532718</v>
       </c>
       <c r="N2">
-        <v>1.052963161760699</v>
+        <v>1.041446655774853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039102855450209</v>
+        <v>1.026780580032051</v>
       </c>
       <c r="D3">
-        <v>1.053665290047307</v>
+        <v>1.042510335147415</v>
       </c>
       <c r="E3">
-        <v>1.038210701690467</v>
+        <v>1.036863874401049</v>
       </c>
       <c r="F3">
-        <v>1.054173549453558</v>
+        <v>1.048559143520982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064042725278088</v>
+        <v>1.052670642619012</v>
       </c>
       <c r="J3">
-        <v>1.058581467948516</v>
+        <v>1.046566880105399</v>
       </c>
       <c r="K3">
-        <v>1.063654645845178</v>
+        <v>1.052626714793092</v>
       </c>
       <c r="L3">
-        <v>1.048376943221687</v>
+        <v>1.047045839997563</v>
       </c>
       <c r="M3">
-        <v>1.064157196458895</v>
+        <v>1.058606230441457</v>
       </c>
       <c r="N3">
-        <v>1.060084775053995</v>
+        <v>1.048053125118048</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044689062362242</v>
+        <v>1.032078617365195</v>
       </c>
       <c r="D4">
-        <v>1.0581888025536</v>
+        <v>1.046599352372384</v>
       </c>
       <c r="E4">
-        <v>1.04301667605437</v>
+        <v>1.040807609634405</v>
       </c>
       <c r="F4">
-        <v>1.059184725093719</v>
+        <v>1.052822905564663</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066204293108321</v>
+        <v>1.054230354363722</v>
       </c>
       <c r="J4">
-        <v>1.063014805985146</v>
+        <v>1.050695881486878</v>
       </c>
       <c r="K4">
-        <v>1.067632221501842</v>
+        <v>1.056166104043418</v>
       </c>
       <c r="L4">
-        <v>1.052622234234075</v>
+        <v>1.05043725924312</v>
       </c>
       <c r="M4">
-        <v>1.068617699539485</v>
+        <v>1.06232301421156</v>
       </c>
       <c r="N4">
-        <v>1.064524408939147</v>
+        <v>1.052187990155091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046992021184433</v>
+        <v>1.034266745322762</v>
       </c>
       <c r="D5">
-        <v>1.060053894370119</v>
+        <v>1.048288761959733</v>
       </c>
       <c r="E5">
-        <v>1.044997193171764</v>
+        <v>1.042439558767077</v>
       </c>
       <c r="F5">
-        <v>1.061250984955849</v>
+        <v>1.054585998019587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067091625625203</v>
+        <v>1.054871453023117</v>
       </c>
       <c r="J5">
-        <v>1.064840857100035</v>
+        <v>1.052400167967238</v>
       </c>
       <c r="K5">
-        <v>1.069269975145098</v>
+        <v>1.057626443490493</v>
       </c>
       <c r="L5">
-        <v>1.054369494671634</v>
+        <v>1.051838945586536</v>
       </c>
       <c r="M5">
-        <v>1.070454877073627</v>
+        <v>1.0638581815581</v>
       </c>
       <c r="N5">
-        <v>1.066353053256071</v>
+        <v>1.053894696917738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047376118937258</v>
+        <v>1.034631914094759</v>
       </c>
       <c r="D6">
-        <v>1.060364973516777</v>
+        <v>1.04857073364436</v>
       </c>
       <c r="E6">
-        <v>1.045327464183559</v>
+        <v>1.04271208872233</v>
       </c>
       <c r="F6">
-        <v>1.061595623796143</v>
+        <v>1.054880354402475</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067239394220273</v>
+        <v>1.054978260554417</v>
       </c>
       <c r="J6">
-        <v>1.065145316673219</v>
+        <v>1.052684527765972</v>
       </c>
       <c r="K6">
-        <v>1.069543005274444</v>
+        <v>1.057870065622055</v>
       </c>
       <c r="L6">
-        <v>1.054660738580369</v>
+        <v>1.052072922404069</v>
       </c>
       <c r="M6">
-        <v>1.070761187756047</v>
+        <v>1.064114382417001</v>
       </c>
       <c r="N6">
-        <v>1.06665794519677</v>
+        <v>1.054179460540003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044720009294719</v>
+        <v>1.032108005966461</v>
       </c>
       <c r="D7">
-        <v>1.058213864676823</v>
+        <v>1.046622040465209</v>
       </c>
       <c r="E7">
-        <v>1.043043293262482</v>
+        <v>1.040829516000206</v>
       </c>
       <c r="F7">
-        <v>1.059212489968947</v>
+        <v>1.0528465773416</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066216232092683</v>
+        <v>1.05423897719397</v>
       </c>
       <c r="J7">
-        <v>1.063039350803975</v>
+        <v>1.050718775796541</v>
       </c>
       <c r="K7">
-        <v>1.067654237627698</v>
+        <v>1.056185723665869</v>
       </c>
       <c r="L7">
-        <v>1.052645725295012</v>
+        <v>1.050456081432833</v>
       </c>
       <c r="M7">
-        <v>1.06864239417711</v>
+        <v>1.062343632698194</v>
       </c>
       <c r="N7">
-        <v>1.064548988614434</v>
+        <v>1.0522109169773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033223319679532</v>
+        <v>1.021219366798657</v>
       </c>
       <c r="D8">
-        <v>1.048905409207587</v>
+        <v>1.038220762557763</v>
       </c>
       <c r="E8">
-        <v>1.03314986324468</v>
+        <v>1.032735877635602</v>
       </c>
       <c r="F8">
-        <v>1.048900772242988</v>
+        <v>1.044091522508833</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061754540629072</v>
+        <v>1.051022951908114</v>
       </c>
       <c r="J8">
-        <v>1.053909798321009</v>
+        <v>1.042229448680301</v>
       </c>
       <c r="K8">
-        <v>1.059461298443575</v>
+        <v>1.0489067497026</v>
       </c>
       <c r="L8">
-        <v>1.043898767622054</v>
+        <v>1.043489952543107</v>
       </c>
       <c r="M8">
-        <v>1.059456717225868</v>
+        <v>1.054705616844128</v>
       </c>
       <c r="N8">
-        <v>1.055406471119769</v>
+        <v>1.043709534042816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011240181842347</v>
+        <v>1.000570745848379</v>
       </c>
       <c r="D9">
-        <v>1.031124686514687</v>
+        <v>1.022322538972253</v>
       </c>
       <c r="E9">
-        <v>1.0142131355809</v>
+        <v>1.017513576321931</v>
       </c>
       <c r="F9">
-        <v>1.029204087182196</v>
+        <v>1.027576787024865</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053098305441209</v>
+        <v>1.044826766461574</v>
       </c>
       <c r="J9">
-        <v>1.036402169903593</v>
+        <v>1.026103365694482</v>
       </c>
       <c r="K9">
-        <v>1.043732193299352</v>
+        <v>1.035063540492392</v>
       </c>
       <c r="L9">
-        <v>1.027079747917586</v>
+        <v>1.030328757697852</v>
       </c>
       <c r="M9">
-        <v>1.041840474063132</v>
+        <v>1.0402377512861</v>
       </c>
       <c r="N9">
-        <v>1.037873979861846</v>
+        <v>1.027560550169469</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9951537164722493</v>
+        <v>0.9856179743815026</v>
       </c>
       <c r="D10">
-        <v>1.018136052828287</v>
+        <v>1.010845018258737</v>
       </c>
       <c r="E10">
-        <v>1.000350796475322</v>
+        <v>1.006594879045831</v>
       </c>
       <c r="F10">
-        <v>1.014813392883141</v>
+        <v>1.015692983963448</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046683128443377</v>
+        <v>1.040279816073976</v>
       </c>
       <c r="J10">
-        <v>1.02356094143188</v>
+        <v>1.014414059527378</v>
       </c>
       <c r="K10">
-        <v>1.032185398152627</v>
+        <v>1.025021184971585</v>
       </c>
       <c r="L10">
-        <v>1.014713720070606</v>
+        <v>1.020846073148419</v>
       </c>
       <c r="M10">
-        <v>1.028920240532456</v>
+        <v>1.029784561929712</v>
       </c>
       <c r="N10">
-        <v>1.025014515372794</v>
+        <v>1.015854643846825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9877732969730856</v>
+        <v>0.9788066776487093</v>
       </c>
       <c r="D11">
-        <v>1.012185057146456</v>
+        <v>1.005628410414061</v>
       </c>
       <c r="E11">
-        <v>0.993991874287832</v>
+        <v>1.001650939621394</v>
       </c>
       <c r="F11">
-        <v>1.008218729132972</v>
+        <v>1.01030166245497</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043721912561504</v>
+        <v>1.038196070157307</v>
       </c>
       <c r="J11">
-        <v>1.017663717918138</v>
+        <v>1.009088496986889</v>
       </c>
       <c r="K11">
-        <v>1.026880782350722</v>
+        <v>1.020444958044568</v>
       </c>
       <c r="L11">
-        <v>1.009027991527919</v>
+        <v>1.016541788654357</v>
       </c>
       <c r="M11">
-        <v>1.022987298985445</v>
+        <v>1.025031884751469</v>
       </c>
       <c r="N11">
-        <v>1.019108917125241</v>
+        <v>1.010521518396679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9849617107455142</v>
+        <v>0.9762205155887153</v>
       </c>
       <c r="D12">
-        <v>1.009919516089127</v>
+        <v>1.003649802517321</v>
       </c>
       <c r="E12">
-        <v>0.9915698324666449</v>
+        <v>0.9997787422942063</v>
       </c>
       <c r="F12">
-        <v>1.005707884250269</v>
+        <v>1.008258354299516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042591263978667</v>
+        <v>1.037403188541517</v>
       </c>
       <c r="J12">
-        <v>1.015416441601765</v>
+        <v>1.00706651150479</v>
       </c>
       <c r="K12">
-        <v>1.02485910977784</v>
+        <v>1.018707410541219</v>
       </c>
       <c r="L12">
-        <v>1.006860343183247</v>
+        <v>1.014910182480419</v>
       </c>
       <c r="M12">
-        <v>1.020726541173666</v>
+        <v>1.023229029297241</v>
       </c>
       <c r="N12">
-        <v>1.016858449418734</v>
+        <v>1.00849666146327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9855681223855399</v>
+        <v>0.9767778955634139</v>
       </c>
       <c r="D13">
-        <v>1.01040808230514</v>
+        <v>1.004076140930281</v>
       </c>
       <c r="E13">
-        <v>0.9920922034390015</v>
+        <v>1.000182013875442</v>
       </c>
       <c r="F13">
-        <v>1.006249363329841</v>
+        <v>1.008698561952277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042835239207584</v>
+        <v>1.03757414772387</v>
       </c>
       <c r="J13">
-        <v>1.015901170929154</v>
+        <v>1.007502291771309</v>
       </c>
       <c r="K13">
-        <v>1.025295186308292</v>
+        <v>1.019081889984436</v>
       </c>
       <c r="L13">
-        <v>1.007327939781712</v>
+        <v>1.015261705423295</v>
       </c>
       <c r="M13">
-        <v>1.021214171733374</v>
+        <v>1.023617506608096</v>
       </c>
       <c r="N13">
-        <v>1.017343867117367</v>
+        <v>1.008933060587752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875423722512078</v>
+        <v>0.9785940852574486</v>
       </c>
       <c r="D14">
-        <v>1.011998948721765</v>
+        <v>1.005465717334046</v>
       </c>
       <c r="E14">
-        <v>0.993792934417547</v>
+        <v>1.001496934522729</v>
       </c>
       <c r="F14">
-        <v>1.008012475284876</v>
+        <v>1.010133617120976</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043629099839771</v>
+        <v>1.038130925844874</v>
       </c>
       <c r="J14">
-        <v>1.017479155413844</v>
+        <v>1.008922279623905</v>
       </c>
       <c r="K14">
-        <v>1.026714752227645</v>
+        <v>1.020302123733717</v>
       </c>
       <c r="L14">
-        <v>1.008849987906874</v>
+        <v>1.016407607838809</v>
       </c>
       <c r="M14">
-        <v>1.022801626365774</v>
+        <v>1.024883647180399</v>
       </c>
       <c r="N14">
-        <v>1.018924092521022</v>
+        <v>1.010355064985974</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9887492159111996</v>
+        <v>0.9797054790294556</v>
       </c>
       <c r="D15">
-        <v>1.012971639073807</v>
+        <v>1.006316332809195</v>
       </c>
       <c r="E15">
-        <v>0.9948326388169972</v>
+        <v>1.002302248810519</v>
       </c>
       <c r="F15">
-        <v>1.009090444175394</v>
+        <v>1.011012280109522</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044114048382048</v>
+        <v>1.038471419945672</v>
       </c>
       <c r="J15">
-        <v>1.01844367573599</v>
+        <v>1.009791237027922</v>
       </c>
       <c r="K15">
-        <v>1.027582413949234</v>
+        <v>1.021048836169516</v>
       </c>
       <c r="L15">
-        <v>1.009780192729313</v>
+        <v>1.017109191349342</v>
       </c>
       <c r="M15">
-        <v>1.023771953679805</v>
+        <v>1.025658675883393</v>
       </c>
       <c r="N15">
-        <v>1.019889982572658</v>
+        <v>1.011225256409175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9956341518292945</v>
+        <v>0.9860624689408414</v>
       </c>
       <c r="D16">
-        <v>1.018523628467765</v>
+        <v>1.011185712169445</v>
       </c>
       <c r="E16">
-        <v>1.000764777779411</v>
+        <v>1.006918165795746</v>
       </c>
       <c r="F16">
-        <v>1.0152428573649</v>
+        <v>1.016045299610059</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046875532646631</v>
+        <v>1.040415553572487</v>
       </c>
       <c r="J16">
-        <v>1.023944720563833</v>
+        <v>1.014761595263385</v>
       </c>
       <c r="K16">
-        <v>1.032530577921714</v>
+        <v>1.025319806658568</v>
       </c>
       <c r="L16">
-        <v>1.01508360045574</v>
+        <v>1.021127309967062</v>
       </c>
       <c r="M16">
-        <v>1.029306359255084</v>
+        <v>1.030094925725353</v>
       </c>
       <c r="N16">
-        <v>1.025398839515135</v>
+        <v>1.016202673123441</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9998367034416763</v>
+        <v>0.9899562390365304</v>
       </c>
       <c r="D17">
-        <v>1.02191484185402</v>
+        <v>1.014171531885049</v>
       </c>
       <c r="E17">
-        <v>1.00438617472214</v>
+        <v>1.009753552226013</v>
       </c>
       <c r="F17">
-        <v>1.019000438709756</v>
+        <v>1.019134098446511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048556568689618</v>
+        <v>1.041603224398285</v>
       </c>
       <c r="J17">
-        <v>1.027301158342156</v>
+        <v>1.017805931801518</v>
       </c>
       <c r="K17">
-        <v>1.035549233775806</v>
+        <v>1.027935563092017</v>
       </c>
       <c r="L17">
-        <v>1.018317733007163</v>
+        <v>1.023592700602489</v>
       </c>
       <c r="M17">
-        <v>1.032683325934258</v>
+        <v>1.032814753770936</v>
       </c>
       <c r="N17">
-        <v>1.028760043820092</v>
+        <v>1.019251332968649</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002248548173007</v>
+        <v>0.9921953452364526</v>
       </c>
       <c r="D18">
-        <v>1.023861798767306</v>
+        <v>1.01588958911491</v>
       </c>
       <c r="E18">
-        <v>1.006464577387395</v>
+        <v>1.011386786568991</v>
       </c>
       <c r="F18">
-        <v>1.021157618690365</v>
+        <v>1.020912337036057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049519633668518</v>
+        <v>1.042285009417096</v>
       </c>
       <c r="J18">
-        <v>1.02922687638056</v>
+        <v>1.019556480453372</v>
       </c>
       <c r="K18">
-        <v>1.037280977191223</v>
+        <v>1.029439570619158</v>
       </c>
       <c r="L18">
-        <v>1.020172649059864</v>
+        <v>1.025011821880728</v>
       </c>
       <c r="M18">
-        <v>1.034620871410659</v>
+        <v>1.034379602345748</v>
       </c>
       <c r="N18">
-        <v>1.030688496598994</v>
+        <v>1.021004367600379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003064452493243</v>
+        <v>0.9929535395179196</v>
       </c>
       <c r="D19">
-        <v>1.024520553825843</v>
+        <v>1.016471520639733</v>
       </c>
       <c r="E19">
-        <v>1.00716768904681</v>
+        <v>1.011940277005348</v>
       </c>
       <c r="F19">
-        <v>1.021887485224853</v>
+        <v>1.02151480808451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049845140688925</v>
+        <v>1.042515666471416</v>
       </c>
       <c r="J19">
-        <v>1.02987823293506</v>
+        <v>1.020149221182142</v>
       </c>
       <c r="K19">
-        <v>1.037866692263584</v>
+        <v>1.029948812584691</v>
       </c>
       <c r="L19">
-        <v>1.020799949379554</v>
+        <v>1.025492584691879</v>
       </c>
       <c r="M19">
-        <v>1.035276235675412</v>
+        <v>1.034909612513818</v>
       </c>
       <c r="N19">
-        <v>1.031340778154512</v>
+        <v>1.021597950088972</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9993899403600628</v>
+        <v>0.9895418284193048</v>
       </c>
       <c r="D20">
-        <v>1.021554251408588</v>
+        <v>1.013853640603697</v>
       </c>
       <c r="E20">
-        <v>1.004001182629301</v>
+        <v>1.009451495277715</v>
       </c>
       <c r="F20">
-        <v>1.018600904519169</v>
+        <v>1.018805146462074</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048378036006172</v>
+        <v>1.041476943527243</v>
       </c>
       <c r="J20">
-        <v>1.026944399055469</v>
+        <v>1.017481934005488</v>
       </c>
       <c r="K20">
-        <v>1.035228395655787</v>
+        <v>1.027657187355901</v>
       </c>
       <c r="L20">
-        <v>1.017974039052422</v>
+        <v>1.023330162817481</v>
       </c>
       <c r="M20">
-        <v>1.032324379202274</v>
+        <v>1.032525197779166</v>
       </c>
       <c r="N20">
-        <v>1.028402777894297</v>
+        <v>1.018926875058585</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9869630120198846</v>
+        <v>0.9780608615208883</v>
       </c>
       <c r="D21">
-        <v>1.011532051932319</v>
+        <v>1.005057685382138</v>
       </c>
       <c r="E21">
-        <v>0.9932938274060877</v>
+        <v>1.00111074062984</v>
       </c>
       <c r="F21">
-        <v>1.007495034551929</v>
+        <v>1.009712187240052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043396204005536</v>
+        <v>1.037967504177806</v>
       </c>
       <c r="J21">
-        <v>1.017016101000352</v>
+        <v>1.008505375314094</v>
       </c>
       <c r="K21">
-        <v>1.026298190875923</v>
+        <v>1.019943867742199</v>
       </c>
       <c r="L21">
-        <v>1.008403373925481</v>
+        <v>1.016071100201249</v>
       </c>
       <c r="M21">
-        <v>1.022335789003161</v>
+        <v>1.024511866159309</v>
       </c>
       <c r="N21">
-        <v>1.01846038051715</v>
+        <v>1.009937568624223</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9787387271825413</v>
+        <v>0.9705140684031328</v>
       </c>
       <c r="D22">
-        <v>1.004908246005781</v>
+        <v>0.9992881668916508</v>
       </c>
       <c r="E22">
-        <v>0.9862100980643397</v>
+        <v>0.9956574273375305</v>
       </c>
       <c r="F22">
-        <v>1.000153453367181</v>
+        <v>1.003757078208616</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040084172492101</v>
+        <v>1.035650720263188</v>
       </c>
       <c r="J22">
-        <v>1.010441317658968</v>
+        <v>1.002605286287987</v>
       </c>
       <c r="K22">
-        <v>1.020383092653576</v>
+        <v>1.014873738536447</v>
       </c>
       <c r="L22">
-        <v>1.002059776376296</v>
+        <v>1.011315405108391</v>
       </c>
       <c r="M22">
-        <v>1.01572187092924</v>
+        <v>1.019254472270482</v>
       </c>
       <c r="N22">
-        <v>1.011876260229283</v>
+        <v>1.00402910079495</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831405438402386</v>
+        <v>0.9745479759059411</v>
       </c>
       <c r="D23">
-        <v>1.008452505321127</v>
+        <v>1.002370812469287</v>
       </c>
       <c r="E23">
-        <v>0.9900011356488767</v>
+        <v>0.9985694053719586</v>
       </c>
       <c r="F23">
-        <v>1.004081949213783</v>
+        <v>1.006937993300192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041858195818815</v>
+        <v>1.036889952067281</v>
       </c>
       <c r="J23">
-        <v>1.013960616457281</v>
+        <v>1.005758883345199</v>
       </c>
       <c r="K23">
-        <v>1.023549379270849</v>
+        <v>1.017583722667271</v>
       </c>
       <c r="L23">
-        <v>1.005455836558106</v>
+        <v>1.013855786014452</v>
       </c>
       <c r="M23">
-        <v>1.019262025614044</v>
+        <v>1.022063592133683</v>
       </c>
       <c r="N23">
-        <v>1.015400556835559</v>
+        <v>1.007187176321705</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.999591934649201</v>
+        <v>0.9897291814157064</v>
       </c>
       <c r="D24">
-        <v>1.021717282318985</v>
+        <v>1.013997354392369</v>
       </c>
       <c r="E24">
-        <v>1.004175248258041</v>
+        <v>1.009588045220404</v>
       </c>
       <c r="F24">
-        <v>1.018781543111617</v>
+        <v>1.018953857750927</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048458760949204</v>
+        <v>1.041534038176854</v>
       </c>
       <c r="J24">
-        <v>1.027105701766412</v>
+        <v>1.017628412111434</v>
       </c>
       <c r="K24">
-        <v>1.035373457767172</v>
+        <v>1.027783040227651</v>
       </c>
       <c r="L24">
-        <v>1.018129436458838</v>
+        <v>1.023448850523252</v>
       </c>
       <c r="M24">
-        <v>1.032486670779685</v>
+        <v>1.032656102102533</v>
       </c>
       <c r="N24">
-        <v>1.028564309673591</v>
+        <v>1.019073561180243</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017153222142748</v>
+        <v>1.00610152843365</v>
       </c>
       <c r="D25">
-        <v>1.035904328339413</v>
+        <v>1.026575899724542</v>
       </c>
       <c r="E25">
-        <v>1.019308250186185</v>
+        <v>1.021574620248523</v>
       </c>
       <c r="F25">
-        <v>1.034498968772848</v>
+        <v>1.031988714982885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055440645969776</v>
+        <v>1.046497089197597</v>
       </c>
       <c r="J25">
-        <v>1.041116787449354</v>
+        <v>1.030425282237186</v>
       </c>
       <c r="K25">
-        <v>1.047969718727951</v>
+        <v>1.038775205874078</v>
       </c>
       <c r="L25">
-        <v>1.031614046212148</v>
+        <v>1.033847001659271</v>
       </c>
       <c r="M25">
-        <v>1.046584338534861</v>
+        <v>1.044109943326472</v>
       </c>
       <c r="N25">
-        <v>1.042595292705297</v>
+        <v>1.031888604329394</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01832364607559</v>
+        <v>1.067708051918255</v>
       </c>
       <c r="D2">
-        <v>1.035988344309651</v>
+        <v>1.068928237496619</v>
       </c>
       <c r="E2">
-        <v>1.030591157067145</v>
+        <v>1.069053404763189</v>
       </c>
       <c r="F2">
-        <v>1.041768497153508</v>
+        <v>1.079712618211368</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050161074202464</v>
+        <v>1.046923539255988</v>
       </c>
       <c r="J2">
-        <v>1.039969779401902</v>
+        <v>1.072651575665976</v>
       </c>
       <c r="K2">
-        <v>1.046968078196752</v>
+        <v>1.071632108104883</v>
       </c>
       <c r="L2">
-        <v>1.041640145142793</v>
+        <v>1.071756940574727</v>
       </c>
       <c r="M2">
-        <v>1.052675055532718</v>
+        <v>1.082387950457629</v>
       </c>
       <c r="N2">
-        <v>1.041446655774853</v>
+        <v>1.074174863938278</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026780580032051</v>
+        <v>1.06937090949603</v>
       </c>
       <c r="D3">
-        <v>1.042510335147415</v>
+        <v>1.070218652064131</v>
       </c>
       <c r="E3">
-        <v>1.036863874401049</v>
+        <v>1.070353580390201</v>
       </c>
       <c r="F3">
-        <v>1.048559143520982</v>
+        <v>1.081095009730812</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052670642619012</v>
+        <v>1.047323147505314</v>
       </c>
       <c r="J3">
-        <v>1.046566880105399</v>
+        <v>1.073967555187215</v>
       </c>
       <c r="K3">
-        <v>1.052626714793092</v>
+        <v>1.072737417855915</v>
       </c>
       <c r="L3">
-        <v>1.047045839997563</v>
+        <v>1.072872011591538</v>
       </c>
       <c r="M3">
-        <v>1.058606230441457</v>
+        <v>1.083587092872194</v>
       </c>
       <c r="N3">
-        <v>1.048053125118048</v>
+        <v>1.075492712301381</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032078617365195</v>
+        <v>1.070445069764911</v>
       </c>
       <c r="D4">
-        <v>1.046599352372384</v>
+        <v>1.071051882981439</v>
       </c>
       <c r="E4">
-        <v>1.040807609634405</v>
+        <v>1.071194027146775</v>
       </c>
       <c r="F4">
-        <v>1.052822905564663</v>
+        <v>1.081988253966468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054230354363722</v>
+        <v>1.047579570399759</v>
       </c>
       <c r="J4">
-        <v>1.050695881486878</v>
+        <v>1.074816893526217</v>
       </c>
       <c r="K4">
-        <v>1.056166104043418</v>
+        <v>1.073450321434756</v>
       </c>
       <c r="L4">
-        <v>1.05043725924312</v>
+        <v>1.073592131003729</v>
       </c>
       <c r="M4">
-        <v>1.06232301421156</v>
+        <v>1.08436122436976</v>
       </c>
       <c r="N4">
-        <v>1.052187990155091</v>
+        <v>1.076343256798245</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034266745322762</v>
+        <v>1.070896221237328</v>
       </c>
       <c r="D5">
-        <v>1.048288761959733</v>
+        <v>1.071401760237615</v>
       </c>
       <c r="E5">
-        <v>1.042439558767077</v>
+        <v>1.071547152266114</v>
       </c>
       <c r="F5">
-        <v>1.054585998019587</v>
+        <v>1.082363479998296</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054871453023117</v>
+        <v>1.047686858412523</v>
       </c>
       <c r="J5">
-        <v>1.052400167967238</v>
+        <v>1.075173439213574</v>
       </c>
       <c r="K5">
-        <v>1.057626443490493</v>
+        <v>1.073749480455778</v>
       </c>
       <c r="L5">
-        <v>1.051838945586536</v>
+        <v>1.073894537922482</v>
       </c>
       <c r="M5">
-        <v>1.0638581815581</v>
+        <v>1.084686246062578</v>
       </c>
       <c r="N5">
-        <v>1.053894696917738</v>
+        <v>1.076700308821374</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034631914094759</v>
+        <v>1.070971946896782</v>
       </c>
       <c r="D6">
-        <v>1.04857073364436</v>
+        <v>1.071460482145191</v>
       </c>
       <c r="E6">
-        <v>1.04271208872233</v>
+        <v>1.071606432040918</v>
       </c>
       <c r="F6">
-        <v>1.054880354402475</v>
+        <v>1.082426465063571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054978260554417</v>
+        <v>1.04770484258397</v>
       </c>
       <c r="J6">
-        <v>1.052684527765972</v>
+        <v>1.075233274760548</v>
       </c>
       <c r="K6">
-        <v>1.057870065622055</v>
+        <v>1.073799678758811</v>
       </c>
       <c r="L6">
-        <v>1.052072922404069</v>
+        <v>1.073945294102752</v>
       </c>
       <c r="M6">
-        <v>1.064114382417001</v>
+        <v>1.084740794</v>
       </c>
       <c r="N6">
-        <v>1.054179460540003</v>
+        <v>1.076760229341688</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032108005966461</v>
+        <v>1.070451099730793</v>
       </c>
       <c r="D7">
-        <v>1.046622040465209</v>
+        <v>1.07105655967181</v>
       </c>
       <c r="E7">
-        <v>1.040829516000206</v>
+        <v>1.071198746394566</v>
       </c>
       <c r="F7">
-        <v>1.0528465773416</v>
+        <v>1.081993268900206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05423897719397</v>
+        <v>1.047581005996201</v>
       </c>
       <c r="J7">
-        <v>1.050718775796541</v>
+        <v>1.074821659724417</v>
       </c>
       <c r="K7">
-        <v>1.056185723665869</v>
+        <v>1.073454320947326</v>
       </c>
       <c r="L7">
-        <v>1.050456081432833</v>
+        <v>1.073596173073943</v>
       </c>
       <c r="M7">
-        <v>1.062343632698194</v>
+        <v>1.084365568979566</v>
       </c>
       <c r="N7">
-        <v>1.0522109169773</v>
+        <v>1.076348029764993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021219366798657</v>
+        <v>1.068270405348188</v>
       </c>
       <c r="D8">
-        <v>1.038220762557763</v>
+        <v>1.06936470633728</v>
       </c>
       <c r="E8">
-        <v>1.032735877635602</v>
+        <v>1.069492985438633</v>
       </c>
       <c r="F8">
-        <v>1.044091522508833</v>
+        <v>1.080180067923372</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051022951908114</v>
+        <v>1.047059035570376</v>
       </c>
       <c r="J8">
-        <v>1.042229448680301</v>
+        <v>1.073096774915998</v>
       </c>
       <c r="K8">
-        <v>1.0489067497026</v>
+        <v>1.072006133967143</v>
       </c>
       <c r="L8">
-        <v>1.043489952543107</v>
+        <v>1.072134078412958</v>
       </c>
       <c r="M8">
-        <v>1.054705616844128</v>
+        <v>1.082793581454154</v>
       </c>
       <c r="N8">
-        <v>1.043709534042816</v>
+        <v>1.074620695422299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000570745848379</v>
+        <v>1.064413349446932</v>
       </c>
       <c r="D9">
-        <v>1.022322538972253</v>
+        <v>1.066369708339966</v>
       </c>
       <c r="E9">
-        <v>1.017513576321931</v>
+        <v>1.06648042047575</v>
       </c>
       <c r="F9">
-        <v>1.027576787024865</v>
+        <v>1.076975057524141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044826766461574</v>
+        <v>1.046122669240503</v>
       </c>
       <c r="J9">
-        <v>1.026103365694482</v>
+        <v>1.070040197810593</v>
       </c>
       <c r="K9">
-        <v>1.035063540492392</v>
+        <v>1.069436298147461</v>
       </c>
       <c r="L9">
-        <v>1.030328757697852</v>
+        <v>1.069546671278922</v>
       </c>
       <c r="M9">
-        <v>1.0402377512861</v>
+        <v>1.080009518278086</v>
       </c>
       <c r="N9">
-        <v>1.027560550169469</v>
+        <v>1.07155977762681</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9856179743815026</v>
+        <v>1.061831660844746</v>
       </c>
       <c r="D10">
-        <v>1.010845018258737</v>
+        <v>1.064363377269776</v>
       </c>
       <c r="E10">
-        <v>1.006594879045831</v>
+        <v>1.06446711241895</v>
       </c>
       <c r="F10">
-        <v>1.015692983963448</v>
+        <v>1.074831289047093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040279816073976</v>
+        <v>1.045487105181285</v>
       </c>
       <c r="J10">
-        <v>1.014414059527378</v>
+        <v>1.067990485629749</v>
       </c>
       <c r="K10">
-        <v>1.025021184971585</v>
+        <v>1.067710606350466</v>
       </c>
       <c r="L10">
-        <v>1.020846073148419</v>
+        <v>1.067813992300684</v>
       </c>
       <c r="M10">
-        <v>1.029784561929712</v>
+        <v>1.078143653254999</v>
       </c>
       <c r="N10">
-        <v>1.015854643846825</v>
+        <v>1.069507154619564</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9788066776487093</v>
+        <v>1.060711170754222</v>
       </c>
       <c r="D11">
-        <v>1.005628410414061</v>
+        <v>1.063492224659312</v>
       </c>
       <c r="E11">
-        <v>1.001650939621394</v>
+        <v>1.063594076797129</v>
       </c>
       <c r="F11">
-        <v>1.01030166245497</v>
+        <v>1.073901235197097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038196070157307</v>
+        <v>1.045209176368649</v>
       </c>
       <c r="J11">
-        <v>1.009088496986889</v>
+        <v>1.067099982929723</v>
       </c>
       <c r="K11">
-        <v>1.020444958044568</v>
+        <v>1.066960315243</v>
       </c>
       <c r="L11">
-        <v>1.016541788654357</v>
+        <v>1.067061811049876</v>
       </c>
       <c r="M11">
-        <v>1.025031884751469</v>
+        <v>1.077333294272696</v>
       </c>
       <c r="N11">
-        <v>1.010521518396679</v>
+        <v>1.068615387303562</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9762205155887153</v>
+        <v>1.060294567532558</v>
       </c>
       <c r="D12">
-        <v>1.003649802517321</v>
+        <v>1.063168271107772</v>
       </c>
       <c r="E12">
-        <v>0.9997787422942063</v>
+        <v>1.063269596108124</v>
       </c>
       <c r="F12">
-        <v>1.008258354299516</v>
+        <v>1.073555494838488</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037403188541517</v>
+        <v>1.045105528466022</v>
       </c>
       <c r="J12">
-        <v>1.00706651150479</v>
+        <v>1.066768755746279</v>
       </c>
       <c r="K12">
-        <v>1.018707410541219</v>
+        <v>1.066681156842747</v>
       </c>
       <c r="L12">
-        <v>1.014910182480419</v>
+        <v>1.066782122370307</v>
       </c>
       <c r="M12">
-        <v>1.023229029297241</v>
+        <v>1.077031918462874</v>
       </c>
       <c r="N12">
-        <v>1.00849666146327</v>
+        <v>1.068283689739525</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9767778955634139</v>
+        <v>1.060383948788869</v>
       </c>
       <c r="D13">
-        <v>1.004076140930281</v>
+        <v>1.063237777063815</v>
       </c>
       <c r="E13">
-        <v>1.000182013875442</v>
+        <v>1.063339207318917</v>
       </c>
       <c r="F13">
-        <v>1.008698561952277</v>
+        <v>1.073629669986055</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03757414772387</v>
+        <v>1.045127780025003</v>
       </c>
       <c r="J13">
-        <v>1.007502291771309</v>
+        <v>1.06683982583785</v>
       </c>
       <c r="K13">
-        <v>1.019081889984436</v>
+        <v>1.066741058521492</v>
       </c>
       <c r="L13">
-        <v>1.015261705423295</v>
+        <v>1.066842130001404</v>
       </c>
       <c r="M13">
-        <v>1.023617506608096</v>
+        <v>1.077096581574399</v>
       </c>
       <c r="N13">
-        <v>1.008933060587752</v>
+        <v>1.068354860758778</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9785940852574486</v>
+        <v>1.06067674250156</v>
       </c>
       <c r="D14">
-        <v>1.005465717334046</v>
+        <v>1.063465454127641</v>
       </c>
       <c r="E14">
-        <v>1.001496934522729</v>
+        <v>1.063567259169659</v>
       </c>
       <c r="F14">
-        <v>1.010133617120976</v>
+        <v>1.073872661889302</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038130925844874</v>
+        <v>1.045200617240256</v>
       </c>
       <c r="J14">
-        <v>1.008922279623905</v>
+        <v>1.067072612921393</v>
       </c>
       <c r="K14">
-        <v>1.020302123733717</v>
+        <v>1.066937249492472</v>
       </c>
       <c r="L14">
-        <v>1.016407607838809</v>
+        <v>1.067038697954386</v>
       </c>
       <c r="M14">
-        <v>1.024883647180399</v>
+        <v>1.077308390096257</v>
       </c>
       <c r="N14">
-        <v>1.010355064985974</v>
+        <v>1.068587978426681</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9797054790294556</v>
+        <v>1.060857088555573</v>
       </c>
       <c r="D15">
-        <v>1.006316332809195</v>
+        <v>1.063605684373885</v>
       </c>
       <c r="E15">
-        <v>1.002302248810519</v>
+        <v>1.063707743205027</v>
       </c>
       <c r="F15">
-        <v>1.011012280109522</v>
+        <v>1.074022340271897</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038471419945672</v>
+        <v>1.045245439857369</v>
       </c>
       <c r="J15">
-        <v>1.009791237027922</v>
+        <v>1.067215980169736</v>
       </c>
       <c r="K15">
-        <v>1.021048836169516</v>
+        <v>1.067058067122488</v>
       </c>
       <c r="L15">
-        <v>1.017109191349342</v>
+        <v>1.067159770658156</v>
       </c>
       <c r="M15">
-        <v>1.025658675883393</v>
+        <v>1.077438842736958</v>
       </c>
       <c r="N15">
-        <v>1.011225256409175</v>
+        <v>1.068731549272961</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9860624689408414</v>
+        <v>1.061905968206337</v>
       </c>
       <c r="D16">
-        <v>1.011185712169445</v>
+        <v>1.064421141559985</v>
       </c>
       <c r="E16">
-        <v>1.006918165795746</v>
+        <v>1.064525025768187</v>
       </c>
       <c r="F16">
-        <v>1.016045299610059</v>
+        <v>1.074892975278785</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040415553572487</v>
+        <v>1.045505492698846</v>
       </c>
       <c r="J16">
-        <v>1.014761595263385</v>
+        <v>1.06804952210376</v>
       </c>
       <c r="K16">
-        <v>1.025319806658568</v>
+        <v>1.067760335661057</v>
       </c>
       <c r="L16">
-        <v>1.021127309967062</v>
+        <v>1.067863871079192</v>
       </c>
       <c r="M16">
-        <v>1.030094925725353</v>
+        <v>1.078197382314863</v>
       </c>
       <c r="N16">
-        <v>1.016202673123441</v>
+        <v>1.06956627493214</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9899562390365304</v>
+        <v>1.062563197373918</v>
       </c>
       <c r="D17">
-        <v>1.014171531885049</v>
+        <v>1.064932008378525</v>
       </c>
       <c r="E17">
-        <v>1.009753552226013</v>
+        <v>1.065037343215465</v>
       </c>
       <c r="F17">
-        <v>1.019134098446511</v>
+        <v>1.07543861707451</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041603224398285</v>
+        <v>1.04566788498726</v>
       </c>
       <c r="J17">
-        <v>1.017805931801518</v>
+        <v>1.068571580725203</v>
       </c>
       <c r="K17">
-        <v>1.027935563092017</v>
+        <v>1.068200026670522</v>
       </c>
       <c r="L17">
-        <v>1.023592700602489</v>
+        <v>1.068305016011242</v>
       </c>
       <c r="M17">
-        <v>1.032814753770936</v>
+        <v>1.078672538890298</v>
       </c>
       <c r="N17">
-        <v>1.019251332968649</v>
+        <v>1.070089074936706</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9921953452364526</v>
+        <v>1.06294629782716</v>
       </c>
       <c r="D18">
-        <v>1.01588958911491</v>
+        <v>1.065229757549164</v>
       </c>
       <c r="E18">
-        <v>1.011386786568991</v>
+        <v>1.065336048231246</v>
       </c>
       <c r="F18">
-        <v>1.020912337036057</v>
+        <v>1.075756708757923</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042285009417096</v>
+        <v>1.045762342927293</v>
       </c>
       <c r="J18">
-        <v>1.019556480453372</v>
+        <v>1.068875803372909</v>
       </c>
       <c r="K18">
-        <v>1.029439570619158</v>
+        <v>1.068456196753397</v>
       </c>
       <c r="L18">
-        <v>1.025011821880728</v>
+        <v>1.06856214360404</v>
       </c>
       <c r="M18">
-        <v>1.034379602345748</v>
+        <v>1.078949456028411</v>
       </c>
       <c r="N18">
-        <v>1.021004367600379</v>
+        <v>1.070393729615467</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9929535395179196</v>
+        <v>1.063076883116727</v>
       </c>
       <c r="D19">
-        <v>1.016471520639733</v>
+        <v>1.065331243426897</v>
       </c>
       <c r="E19">
-        <v>1.011940277005348</v>
+        <v>1.065437878597908</v>
       </c>
       <c r="F19">
-        <v>1.02151480808451</v>
+        <v>1.075865140887532</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042515666471416</v>
+        <v>1.045794506179052</v>
       </c>
       <c r="J19">
-        <v>1.020149221182142</v>
+        <v>1.068979487327367</v>
       </c>
       <c r="K19">
-        <v>1.029948812584691</v>
+        <v>1.068543494459592</v>
       </c>
       <c r="L19">
-        <v>1.025492584691879</v>
+        <v>1.068649786325853</v>
       </c>
       <c r="M19">
-        <v>1.034909612513818</v>
+        <v>1.079043838218017</v>
       </c>
       <c r="N19">
-        <v>1.021597950088972</v>
+        <v>1.070497560813033</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9895418284193048</v>
+        <v>1.062492708873413</v>
       </c>
       <c r="D20">
-        <v>1.013853640603697</v>
+        <v>1.064877221137454</v>
       </c>
       <c r="E20">
-        <v>1.009451495277715</v>
+        <v>1.064982388977536</v>
       </c>
       <c r="F20">
-        <v>1.018805146462074</v>
+        <v>1.075380092719079</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041476943527243</v>
+        <v>1.045650489031391</v>
       </c>
       <c r="J20">
-        <v>1.017481934005488</v>
+        <v>1.068515598356315</v>
       </c>
       <c r="K20">
-        <v>1.027657187355901</v>
+        <v>1.06815288247842</v>
       </c>
       <c r="L20">
-        <v>1.023330162817481</v>
+        <v>1.068257704496019</v>
       </c>
       <c r="M20">
-        <v>1.032525197779166</v>
+        <v>1.078621583310619</v>
       </c>
       <c r="N20">
-        <v>1.018926875058585</v>
+        <v>1.070033013066433</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9780608615208883</v>
+        <v>1.060590533284429</v>
       </c>
       <c r="D21">
-        <v>1.005057685382138</v>
+        <v>1.06339841915244</v>
       </c>
       <c r="E21">
-        <v>1.00111074062984</v>
+        <v>1.063500109062201</v>
       </c>
       <c r="F21">
-        <v>1.009712187240052</v>
+        <v>1.073801114542591</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037967504177806</v>
+        <v>1.045179179916898</v>
       </c>
       <c r="J21">
-        <v>1.008505375314094</v>
+        <v>1.067004075560061</v>
       </c>
       <c r="K21">
-        <v>1.019943867742199</v>
+        <v>1.066879489093086</v>
       </c>
       <c r="L21">
-        <v>1.016071100201249</v>
+        <v>1.06698082179063</v>
       </c>
       <c r="M21">
-        <v>1.024511866159309</v>
+        <v>1.077246028108529</v>
       </c>
       <c r="N21">
-        <v>1.009937568624223</v>
+        <v>1.068519343734435</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9705140684031328</v>
+        <v>1.059392220331494</v>
       </c>
       <c r="D22">
-        <v>0.9992881668916508</v>
+        <v>1.062466500338649</v>
       </c>
       <c r="E22">
-        <v>0.9956574273375305</v>
+        <v>1.06256700105157</v>
       </c>
       <c r="F22">
-        <v>1.003757078208616</v>
+        <v>1.072806741777669</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035650720263188</v>
+        <v>1.044880459367315</v>
       </c>
       <c r="J22">
-        <v>1.002605286287987</v>
+        <v>1.066051084880585</v>
       </c>
       <c r="K22">
-        <v>1.014873738536447</v>
+        <v>1.066076150978548</v>
       </c>
       <c r="L22">
-        <v>1.011315405108391</v>
+        <v>1.06617628442474</v>
       </c>
       <c r="M22">
-        <v>1.019254472270482</v>
+        <v>1.076379003458344</v>
       </c>
       <c r="N22">
-        <v>1.00402910079495</v>
+        <v>1.067564999698884</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9745479759059411</v>
+        <v>1.060027694643052</v>
       </c>
       <c r="D23">
-        <v>1.002370812469287</v>
+        <v>1.062960733553526</v>
       </c>
       <c r="E23">
-        <v>0.9985694053719586</v>
+        <v>1.063061769687161</v>
       </c>
       <c r="F23">
-        <v>1.006937993300192</v>
+        <v>1.073334032673022</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036889952067281</v>
+        <v>1.045039044420877</v>
       </c>
       <c r="J23">
-        <v>1.005758883345199</v>
+        <v>1.066556536373087</v>
       </c>
       <c r="K23">
-        <v>1.017583722667271</v>
+        <v>1.06650227477573</v>
       </c>
       <c r="L23">
-        <v>1.013855786014452</v>
+        <v>1.066602949275465</v>
       </c>
       <c r="M23">
-        <v>1.022063592133683</v>
+        <v>1.076838836837868</v>
       </c>
       <c r="N23">
-        <v>1.007187176321705</v>
+        <v>1.068071168990482</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9897291814157064</v>
+        <v>1.062524560365842</v>
       </c>
       <c r="D24">
-        <v>1.013997354392369</v>
+        <v>1.064901977846742</v>
       </c>
       <c r="E24">
-        <v>1.009588045220404</v>
+        <v>1.065007220806561</v>
       </c>
       <c r="F24">
-        <v>1.018953857750927</v>
+        <v>1.075406537887657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041534038176854</v>
+        <v>1.045658350326951</v>
       </c>
       <c r="J24">
-        <v>1.017628412111434</v>
+        <v>1.068540895260806</v>
       </c>
       <c r="K24">
-        <v>1.027783040227651</v>
+        <v>1.068174185818862</v>
       </c>
       <c r="L24">
-        <v>1.023448850523252</v>
+        <v>1.068279083104409</v>
       </c>
       <c r="M24">
-        <v>1.032656102102533</v>
+        <v>1.078644608665868</v>
       </c>
       <c r="N24">
-        <v>1.019073561180243</v>
+        <v>1.07005834589543</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00610152843365</v>
+        <v>1.065412262212148</v>
       </c>
       <c r="D25">
-        <v>1.026575899724542</v>
+        <v>1.067145658996216</v>
       </c>
       <c r="E25">
-        <v>1.021574620248523</v>
+        <v>1.067260083194876</v>
       </c>
       <c r="F25">
-        <v>1.031988714982885</v>
+        <v>1.077804848593734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046497089197597</v>
+        <v>1.046366725231529</v>
       </c>
       <c r="J25">
-        <v>1.030425282237186</v>
+        <v>1.070832474094726</v>
       </c>
       <c r="K25">
-        <v>1.038775205874078</v>
+        <v>1.070102830143406</v>
       </c>
       <c r="L25">
-        <v>1.033847001659271</v>
+        <v>1.07021691741875</v>
       </c>
       <c r="M25">
-        <v>1.044109943326472</v>
+        <v>1.080730967426512</v>
       </c>
       <c r="N25">
-        <v>1.031888604329394</v>
+        <v>1.072353179034142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,50 +412,62 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9648701708403392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9683942856474069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9600238894088614</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.9706300002952758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -466,29 +478,29 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.9715596031702913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.9717150950965047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691358</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -497,7 +509,7 @@
         <v>0.970642461629057</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -511,7 +523,7 @@
         <v>0.966070643453771</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -525,7 +537,7 @@
         <v>0.9576541208834081</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -539,21 +551,21 @@
         <v>0.9517730114689358</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9491556125416573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -567,12 +579,12 @@
         <v>0.9481721277252507</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -581,46 +593,46 @@
         <v>0.9483836088965214</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9490745509764514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737293</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9494987508782936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -628,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855665</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068049</v>
+        <v>0.9534603602068054</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -642,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0.939383286721568</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816588</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660142</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057446</v>
+        <v>0.9532985019057444</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -698,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651167</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572521</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -718,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -726,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011823</v>
+        <v>0.9381640424011831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -429,336 +429,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.026525721940291</v>
+      </c>
+      <c r="D2">
+        <v>1.043344715904429</v>
+      </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.034671364747233</v>
+      </c>
+      <c r="F2">
+        <v>1.045920432675527</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.059599238520173</v>
+      </c>
+      <c r="J2">
+        <v>1.047940998587854</v>
+      </c>
+      <c r="K2">
+        <v>1.054231495114977</v>
+      </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.045667914219875</v>
+      </c>
+      <c r="M2">
+        <v>1.056775050385739</v>
+      </c>
+      <c r="N2">
+        <v>1.019478256523021</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053505919532788</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049416554733676</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.030394114098694</v>
+      </c>
+      <c r="D3">
+        <v>1.046019265017254</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>1.037843090835699</v>
+      </c>
+      <c r="F3">
+        <v>1.048841392425658</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.060763212795834</v>
+      </c>
+      <c r="J3">
+        <v>1.050089154790072</v>
+      </c>
+      <c r="K3">
+        <v>1.056095327317655</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>1.048013619176397</v>
+      </c>
+      <c r="M3">
+        <v>1.058885270085398</v>
+      </c>
+      <c r="N3">
+        <v>1.020222579576395</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055175985661792</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050731782899936</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.032851740426393</v>
+      </c>
+      <c r="D4">
+        <v>1.047722342470708</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>1.039868745449256</v>
+      </c>
+      <c r="F4">
+        <v>1.050705416741373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.061493287719377</v>
+      </c>
+      <c r="J4">
+        <v>1.051450857605969</v>
+      </c>
+      <c r="K4">
+        <v>1.057276997201215</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>1.04950867209861</v>
+      </c>
+      <c r="M4">
+        <v>1.060228091354877</v>
+      </c>
+      <c r="N4">
+        <v>1.020694464586721</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056238716848127</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051568182823219</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.033878498159204</v>
+      </c>
+      <c r="D5">
+        <v>1.048436592719034</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.040717599217388</v>
+      </c>
+      <c r="F5">
+        <v>1.051486370314781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.061797599558891</v>
+      </c>
+      <c r="J5">
+        <v>1.052020750537273</v>
+      </c>
+      <c r="K5">
+        <v>1.057772725632707</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.050135313374867</v>
+      </c>
+      <c r="M5">
+        <v>1.060790673590837</v>
+      </c>
+      <c r="N5">
+        <v>1.020892876657833</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056683953388042</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051925751442956</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.034055320893651</v>
+      </c>
+      <c r="D6">
+        <v>1.048561864322671</v>
+      </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.040863994134188</v>
+      </c>
+      <c r="F6">
+        <v>1.051621255847222</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.061851809680877</v>
+      </c>
+      <c r="J6">
+        <v>1.0521209776917</v>
+      </c>
+      <c r="K6">
+        <v>1.057861288772509</v>
+      </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.050244404133744</v>
+      </c>
+      <c r="M6">
+        <v>1.060888895807097</v>
+      </c>
+      <c r="N6">
+        <v>1.020928875826792</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056761687987436</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051996977164832</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.032879065215917</v>
+      </c>
+      <c r="D7">
+        <v>1.047747272828615</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>1.039891548757503</v>
+      </c>
+      <c r="F7">
+        <v>1.050726942493931</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.061506594318868</v>
+      </c>
+      <c r="J7">
+        <v>1.051471744441307</v>
+      </c>
+      <c r="K7">
+        <v>1.057298839633513</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>1.049528377456956</v>
+      </c>
+      <c r="M7">
+        <v>1.060246578010474</v>
+      </c>
+      <c r="N7">
+        <v>1.020704744417189</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056253347485868</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051603423632075</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.027859711064479</v>
+      </c>
+      <c r="D8">
+        <v>1.044273521766107</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.035763475430649</v>
+      </c>
+      <c r="F8">
+        <v>1.046926956328055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.060008937911449</v>
+      </c>
+      <c r="J8">
+        <v>1.048689511980483</v>
+      </c>
+      <c r="K8">
+        <v>1.054885403406521</v>
+      </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.046479855577557</v>
+      </c>
+      <c r="M8">
+        <v>1.057506686757856</v>
+      </c>
+      <c r="N8">
+        <v>1.019741553569413</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054084950239358</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049901478206983</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.018629517117915</v>
+      </c>
+      <c r="D9">
+        <v>1.037908894174707</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>1.02825776098519</v>
+      </c>
+      <c r="F9">
+        <v>1.040005595214735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.057173606437873</v>
+      </c>
+      <c r="J9">
+        <v>1.043541145967562</v>
+      </c>
+      <c r="K9">
+        <v>1.050415473595861</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>1.040908428329055</v>
+      </c>
+      <c r="M9">
+        <v>1.052481320587088</v>
+      </c>
+      <c r="N9">
+        <v>1.017954737383046</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050107772502403</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046737892877483</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.012279833298856</v>
+      </c>
+      <c r="D10">
+        <v>1.03357807165663</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>1.023214521902048</v>
+      </c>
+      <c r="F10">
+        <v>1.035361245180269</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.055198733342008</v>
+      </c>
+      <c r="J10">
+        <v>1.040014573093025</v>
+      </c>
+      <c r="K10">
+        <v>1.047366422225362</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>1.037176910457751</v>
+      </c>
+      <c r="M10">
+        <v>1.04912010247959</v>
+      </c>
+      <c r="N10">
+        <v>1.016744850587601</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047498505306421</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044598670214768</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.010013894253552</v>
+      </c>
+      <c r="D11">
+        <v>1.032216061288601</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>1.021908772336603</v>
+      </c>
+      <c r="F11">
+        <v>1.034267824186655</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.054655841981545</v>
+      </c>
+      <c r="J11">
+        <v>1.038975936788047</v>
+      </c>
+      <c r="K11">
+        <v>1.046554971431967</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.03642901972619</v>
+      </c>
+      <c r="M11">
+        <v>1.048571195398381</v>
+      </c>
+      <c r="N11">
+        <v>1.016494715398943</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047495827157924</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.044057397552578</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.009357836065856</v>
+      </c>
+      <c r="D12">
+        <v>1.031898404593629</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>1.021754297535328</v>
+      </c>
+      <c r="F12">
+        <v>1.034203951622401</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.054570481682777</v>
+      </c>
+      <c r="J12">
+        <v>1.03877136859351</v>
+      </c>
+      <c r="K12">
+        <v>1.046438976716742</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>1.036476259320248</v>
+      </c>
+      <c r="M12">
+        <v>1.048703940711015</v>
+      </c>
+      <c r="N12">
+        <v>1.016504833013354</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047924149002299</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043975387379125</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.009917041839904</v>
+      </c>
+      <c r="D13">
+        <v>1.032384545649466</v>
+      </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.022493898168443</v>
+      </c>
+      <c r="F13">
+        <v>1.034951874877736</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.054849065123171</v>
+      </c>
+      <c r="J13">
+        <v>1.039216435865884</v>
+      </c>
+      <c r="K13">
+        <v>1.046874498297635</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.037159845313577</v>
+      </c>
+      <c r="M13">
+        <v>1.04939685655944</v>
+      </c>
+      <c r="N13">
+        <v>1.016727386252248</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048746361467743</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044280846167463</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.010859294530437</v>
+      </c>
+      <c r="D14">
+        <v>1.033089678837611</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>1.023414575247594</v>
+      </c>
+      <c r="F14">
+        <v>1.035842473249893</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.055208942855239</v>
+      </c>
+      <c r="J14">
+        <v>1.039822208704118</v>
+      </c>
+      <c r="K14">
+        <v>1.047429621938733</v>
+      </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.037924443563823</v>
+      </c>
+      <c r="M14">
+        <v>1.050134818744762</v>
+      </c>
+      <c r="N14">
+        <v>1.016979309205229</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04950173786249</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044674734872901</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.01135985583204</v>
+      </c>
+      <c r="D15">
+        <v>1.033445270844856</v>
+      </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>1.023846000062944</v>
+      </c>
+      <c r="F15">
+        <v>1.036250664169142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.055381353927016</v>
+      </c>
+      <c r="J15">
+        <v>1.040119292129005</v>
+      </c>
+      <c r="K15">
+        <v>1.047694284719909</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>1.038262293460327</v>
+      </c>
+      <c r="M15">
+        <v>1.050451546585562</v>
+      </c>
+      <c r="N15">
+        <v>1.017091128185761</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049789359865119</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044867652974381</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.013945651970425</v>
+      </c>
+      <c r="D16">
+        <v>1.03519304703262</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>1.025846055053303</v>
+      </c>
+      <c r="F16">
+        <v>1.038098828350566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.056183194389679</v>
+      </c>
+      <c r="J16">
+        <v>1.04154163769513</v>
+      </c>
+      <c r="K16">
+        <v>1.04891978058714</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.039728466632907</v>
+      </c>
+      <c r="M16">
+        <v>1.051777899147577</v>
+      </c>
+      <c r="N16">
+        <v>1.017566376336727</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.050799275728125</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04573722593325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.015437259981605</v>
+      </c>
+      <c r="D17">
+        <v>1.036165784766104</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.026899474189074</v>
+      </c>
+      <c r="F17">
+        <v>1.039047357221266</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.05660738408378</v>
+      </c>
+      <c r="J17">
+        <v>1.04231486529022</v>
+      </c>
+      <c r="K17">
+        <v>1.049568080141715</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.04045174268316</v>
+      </c>
+      <c r="M17">
+        <v>1.052403713575494</v>
+      </c>
+      <c r="N17">
+        <v>1.017798971125081</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05116590682513</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04619813978269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.016111352086568</v>
+      </c>
+      <c r="D18">
+        <v>1.036537284240387</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>1.027194814858725</v>
+      </c>
+      <c r="F18">
+        <v>1.039264280608187</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.056732455581116</v>
+      </c>
+      <c r="J18">
+        <v>1.042579211774917</v>
+      </c>
+      <c r="K18">
+        <v>1.049753793495103</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.040560079547775</v>
+      </c>
+      <c r="M18">
+        <v>1.052438014140942</v>
+      </c>
+      <c r="N18">
+        <v>1.017831491278155</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.050957436149888</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046317958842753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.016061128561712</v>
+      </c>
+      <c r="D19">
+        <v>1.036383208408232</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.026813444762085</v>
+      </c>
+      <c r="F19">
+        <v>1.03882846500345</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.056599890525965</v>
+      </c>
+      <c r="J19">
+        <v>1.042399637375505</v>
+      </c>
+      <c r="K19">
+        <v>1.049540803450386</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.04012270472834</v>
+      </c>
+      <c r="M19">
+        <v>1.051947879688189</v>
+      </c>
+      <c r="N19">
+        <v>1.017695712086968</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050247639143185</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046173683160011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.013962885122067</v>
+      </c>
+      <c r="D20">
+        <v>1.034739901245097</v>
+      </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.024552574070061</v>
+      </c>
+      <c r="F20">
+        <v>1.036594796777867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.055738928082906</v>
+      </c>
+      <c r="J20">
+        <v>1.040965972795607</v>
+      </c>
+      <c r="K20">
+        <v>1.048198210567819</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.038177011025652</v>
+      </c>
+      <c r="M20">
+        <v>1.050023308451052</v>
+      </c>
+      <c r="N20">
+        <v>1.0170807738297</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.048202854356613</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045228316251413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.009085063862827</v>
+      </c>
+      <c r="D21">
+        <v>1.031385736390267</v>
+      </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.020608834343462</v>
+      </c>
+      <c r="F21">
+        <v>1.032937313894792</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.054171158011251</v>
+      </c>
+      <c r="J21">
+        <v>1.038207792646919</v>
+      </c>
+      <c r="K21">
+        <v>1.045795932686855</v>
+      </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.03521000943074</v>
+      </c>
+      <c r="M21">
+        <v>1.047320439379343</v>
+      </c>
+      <c r="N21">
+        <v>1.016114203713557</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046023323326509</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04353304968502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.005973507349986</v>
+      </c>
+      <c r="D22">
+        <v>1.029257040993342</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.01813515995982</v>
+      </c>
+      <c r="F22">
+        <v>1.030648955047618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.05316740772215</v>
+      </c>
+      <c r="J22">
+        <v>1.036453737788622</v>
+      </c>
+      <c r="K22">
+        <v>1.044270368263287</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.033355717846258</v>
+      </c>
+      <c r="M22">
+        <v>1.045636757233998</v>
+      </c>
+      <c r="N22">
+        <v>1.015501950245926</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044690810695818</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042441084896659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.007616154054877</v>
+      </c>
+      <c r="D23">
+        <v>1.030374976940224</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>1.019438403086688</v>
+      </c>
+      <c r="F23">
+        <v>1.031855001215038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.053693820034157</v>
+      </c>
+      <c r="J23">
+        <v>1.037374792035047</v>
+      </c>
+      <c r="K23">
+        <v>1.045068342494093</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.034330242523574</v>
+      </c>
+      <c r="M23">
+        <v>1.046521927285407</v>
+      </c>
+      <c r="N23">
+        <v>1.01582006950539</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.045391359065396</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042995747437054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.013970434074729</v>
+      </c>
+      <c r="D24">
+        <v>1.034720047833064</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>1.024510576328988</v>
+      </c>
+      <c r="F24">
+        <v>1.036544766467885</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.055718183687061</v>
+      </c>
+      <c r="J24">
+        <v>1.04094111049864</v>
+      </c>
+      <c r="K24">
+        <v>1.048163692628406</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.038120509900676</v>
+      </c>
+      <c r="M24">
+        <v>1.049959133260662</v>
+      </c>
+      <c r="N24">
+        <v>1.017057658499836</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.048111653813812</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045176845576484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.021083008313363</v>
+      </c>
+      <c r="D25">
+        <v>1.039605775660681</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>1.030243769558828</v>
+      </c>
+      <c r="F25">
+        <v>1.041838540366914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.057943448403609</v>
+      </c>
+      <c r="J25">
+        <v>1.044921096584245</v>
+      </c>
+      <c r="K25">
+        <v>1.051618870796845</v>
+      </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.042390054571888</v>
+      </c>
+      <c r="M25">
+        <v>1.053820317143345</v>
+      </c>
+      <c r="N25">
+        <v>1.018438873771683</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051167483866402</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047616946227425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026525721940291</v>
+        <v>1.024398797200429</v>
       </c>
       <c r="D2">
-        <v>1.043344715904429</v>
+        <v>1.040650572055336</v>
       </c>
       <c r="E2">
-        <v>1.034671364747233</v>
+        <v>1.033402742836974</v>
       </c>
       <c r="F2">
-        <v>1.045920432675527</v>
+        <v>1.044177297970411</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.059599238520173</v>
+        <v>1.058046283086963</v>
       </c>
       <c r="J2">
-        <v>1.047940998587854</v>
+        <v>1.045873453736981</v>
       </c>
       <c r="K2">
-        <v>1.054231495114977</v>
+        <v>1.051571204018461</v>
       </c>
       <c r="L2">
-        <v>1.045667914219875</v>
+        <v>1.044415541113107</v>
       </c>
       <c r="M2">
-        <v>1.056775050385739</v>
+        <v>1.055053659573802</v>
       </c>
       <c r="N2">
-        <v>1.019478256523021</v>
+        <v>1.019119166874539</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053505919532788</v>
+        <v>1.052143576902051</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049416554733676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047544202810764</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025595564967525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030394114098694</v>
+        <v>1.02805908836283</v>
       </c>
       <c r="D3">
-        <v>1.046019265017254</v>
+        <v>1.043095205450981</v>
       </c>
       <c r="E3">
-        <v>1.037843090835699</v>
+        <v>1.036441348881282</v>
       </c>
       <c r="F3">
-        <v>1.048841392425658</v>
+        <v>1.04694179385557</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060763212795834</v>
+        <v>1.059068418089871</v>
       </c>
       <c r="J3">
-        <v>1.050089154790072</v>
+        <v>1.047813000810149</v>
       </c>
       <c r="K3">
-        <v>1.056095327317655</v>
+        <v>1.053204841715201</v>
       </c>
       <c r="L3">
-        <v>1.048013619176397</v>
+        <v>1.046628257836912</v>
       </c>
       <c r="M3">
-        <v>1.058885270085398</v>
+        <v>1.057007311726221</v>
       </c>
       <c r="N3">
-        <v>1.020222579576395</v>
+        <v>1.019646877528459</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055175985661792</v>
+        <v>1.05368973554899</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050731782899936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048696392887434</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025939835340244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032851740426393</v>
+        <v>1.03038579186287</v>
       </c>
       <c r="D4">
-        <v>1.047722342470708</v>
+        <v>1.044653031984899</v>
       </c>
       <c r="E4">
-        <v>1.039868745449256</v>
+        <v>1.038383542668695</v>
       </c>
       <c r="F4">
-        <v>1.050705416741373</v>
+        <v>1.048707223428371</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061493287719377</v>
+        <v>1.059708756598454</v>
       </c>
       <c r="J4">
-        <v>1.051450857605969</v>
+        <v>1.049042917868708</v>
       </c>
       <c r="K4">
-        <v>1.057276997201215</v>
+        <v>1.054240825128097</v>
       </c>
       <c r="L4">
-        <v>1.04950867209861</v>
+        <v>1.048039773341665</v>
       </c>
       <c r="M4">
-        <v>1.060228091354877</v>
+        <v>1.058251295070281</v>
       </c>
       <c r="N4">
-        <v>1.020694464586721</v>
+        <v>1.019981702227272</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056238716848127</v>
+        <v>1.054674246727369</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051568182823219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049429867178076</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026155860416583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033878498159204</v>
+        <v>1.031357969722205</v>
       </c>
       <c r="D5">
-        <v>1.048436592719034</v>
+        <v>1.045306720899234</v>
       </c>
       <c r="E5">
-        <v>1.040717599217388</v>
+        <v>1.039197574902956</v>
       </c>
       <c r="F5">
-        <v>1.051486370314781</v>
+        <v>1.049447045630345</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061797599558891</v>
+        <v>1.059975597124871</v>
       </c>
       <c r="J5">
-        <v>1.052020750537273</v>
+        <v>1.049557761322403</v>
       </c>
       <c r="K5">
-        <v>1.057772725632707</v>
+        <v>1.054675755499762</v>
       </c>
       <c r="L5">
-        <v>1.050135313374867</v>
+        <v>1.048631528956732</v>
       </c>
       <c r="M5">
-        <v>1.060790673590837</v>
+        <v>1.058772607707938</v>
       </c>
       <c r="N5">
-        <v>1.020892876657833</v>
+        <v>1.020122522198372</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056683953388042</v>
+        <v>1.055086822706604</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051925751442956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049745162880324</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026246690691293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034055320893651</v>
+        <v>1.031525197820788</v>
       </c>
       <c r="D6">
-        <v>1.048561864322671</v>
+        <v>1.045421493613663</v>
       </c>
       <c r="E6">
-        <v>1.040863994134188</v>
+        <v>1.03933772923366</v>
       </c>
       <c r="F6">
-        <v>1.051621255847222</v>
+        <v>1.049574705162656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061851809680877</v>
+        <v>1.060023278068816</v>
       </c>
       <c r="J6">
-        <v>1.0521209776917</v>
+        <v>1.049648318711312</v>
       </c>
       <c r="K6">
-        <v>1.057861288772509</v>
+        <v>1.054753780322722</v>
       </c>
       <c r="L6">
-        <v>1.050244404133744</v>
+        <v>1.048734370760184</v>
       </c>
       <c r="M6">
-        <v>1.060888895807097</v>
+        <v>1.05886358200102</v>
       </c>
       <c r="N6">
-        <v>1.020928875826792</v>
+        <v>1.020148043429192</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056761687987436</v>
+        <v>1.055158821337308</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051996977164832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04980981055643</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.0262637972713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032879065215917</v>
+        <v>1.030420345341412</v>
       </c>
       <c r="D7">
-        <v>1.047747272828615</v>
+        <v>1.044682615798296</v>
       </c>
       <c r="E7">
-        <v>1.039891548757503</v>
+        <v>1.038409998289004</v>
       </c>
       <c r="F7">
-        <v>1.050726942493931</v>
+        <v>1.048732461610484</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061506594318868</v>
+        <v>1.059725638267668</v>
       </c>
       <c r="J7">
-        <v>1.051471744441307</v>
+        <v>1.049070837716592</v>
       </c>
       <c r="K7">
-        <v>1.057298839633513</v>
+        <v>1.054267257674984</v>
       </c>
       <c r="L7">
-        <v>1.049528377456956</v>
+        <v>1.048063084561808</v>
       </c>
       <c r="M7">
-        <v>1.060246578010474</v>
+        <v>1.058273446152602</v>
       </c>
       <c r="N7">
-        <v>1.020704744417189</v>
+        <v>1.020017888197965</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056253347485868</v>
+        <v>1.054691777487603</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051603423632075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049470361924142</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02616474941432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027859711064479</v>
+        <v>1.025688305606152</v>
       </c>
       <c r="D8">
-        <v>1.044273521766107</v>
+        <v>1.041519489302535</v>
       </c>
       <c r="E8">
-        <v>1.035763475430649</v>
+        <v>1.034464317487632</v>
       </c>
       <c r="F8">
-        <v>1.046926956328055</v>
+        <v>1.045145191177199</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060008937911449</v>
+        <v>1.058421335023051</v>
       </c>
       <c r="J8">
-        <v>1.048689511980483</v>
+        <v>1.046576709269765</v>
       </c>
       <c r="K8">
-        <v>1.054885403406521</v>
+        <v>1.052164956487936</v>
       </c>
       <c r="L8">
-        <v>1.046479855577557</v>
+        <v>1.045196838982615</v>
       </c>
       <c r="M8">
-        <v>1.057506686757856</v>
+        <v>1.055746488582352</v>
       </c>
       <c r="N8">
-        <v>1.019741553569413</v>
+        <v>1.019393935157124</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054084950239358</v>
+        <v>1.052691895736695</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049901478206983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047988869722976</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025727451816716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018629517117915</v>
+        <v>1.016967502868653</v>
       </c>
       <c r="D9">
-        <v>1.037908894174707</v>
+        <v>1.035711675837931</v>
       </c>
       <c r="E9">
-        <v>1.02825776098519</v>
+        <v>1.027286865961087</v>
       </c>
       <c r="F9">
-        <v>1.040005595214735</v>
+        <v>1.038605120137389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.057173606437873</v>
+        <v>1.055929099428533</v>
       </c>
       <c r="J9">
-        <v>1.043541145967562</v>
+        <v>1.041935001058399</v>
       </c>
       <c r="K9">
-        <v>1.050415473595861</v>
+        <v>1.048250758847619</v>
       </c>
       <c r="L9">
-        <v>1.040908428329055</v>
+        <v>1.039952219359216</v>
       </c>
       <c r="M9">
-        <v>1.052481320587088</v>
+        <v>1.051101436685409</v>
       </c>
       <c r="N9">
-        <v>1.017954737383046</v>
+        <v>1.018139930311483</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050107772502403</v>
+        <v>1.049015700418406</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046737892877483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045217931531319</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024887796143999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012279833298856</v>
+        <v>1.011010864824277</v>
       </c>
       <c r="D10">
-        <v>1.03357807165663</v>
+        <v>1.031792092091645</v>
       </c>
       <c r="E10">
-        <v>1.023214521902048</v>
+        <v>1.022493655412509</v>
       </c>
       <c r="F10">
-        <v>1.035361245180269</v>
+        <v>1.034246297332752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055198733342008</v>
+        <v>1.054209865815651</v>
       </c>
       <c r="J10">
-        <v>1.040014573093025</v>
+        <v>1.038794330300377</v>
       </c>
       <c r="K10">
-        <v>1.047366422225362</v>
+        <v>1.045610113954993</v>
       </c>
       <c r="L10">
-        <v>1.037176910457751</v>
+        <v>1.036468319163985</v>
       </c>
       <c r="M10">
-        <v>1.04912010247959</v>
+        <v>1.04802358027064</v>
       </c>
       <c r="N10">
-        <v>1.016744850587601</v>
+        <v>1.017415099031415</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047498505306421</v>
+        <v>1.046630742297594</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044598670214768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043369155590529</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024323381376538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010013894253552</v>
+        <v>1.008898685769298</v>
       </c>
       <c r="D11">
-        <v>1.032216061288601</v>
+        <v>1.030577201563605</v>
       </c>
       <c r="E11">
-        <v>1.021908772336603</v>
+        <v>1.021252277295716</v>
       </c>
       <c r="F11">
-        <v>1.034267824186655</v>
+        <v>1.0332490190805</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054655841981545</v>
+        <v>1.053761644509884</v>
       </c>
       <c r="J11">
-        <v>1.038975936788047</v>
+        <v>1.0379058981611</v>
       </c>
       <c r="K11">
-        <v>1.046554971431967</v>
+        <v>1.044944630307277</v>
       </c>
       <c r="L11">
-        <v>1.03642901972619</v>
+        <v>1.035784235466974</v>
       </c>
       <c r="M11">
-        <v>1.048571195398381</v>
+        <v>1.047570014360743</v>
       </c>
       <c r="N11">
-        <v>1.016494715398943</v>
+        <v>1.017474447650799</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047495827157924</v>
+        <v>1.04670390547846</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044057397552578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042934309661901</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024251626188773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009357836065856</v>
+        <v>1.008274445475587</v>
       </c>
       <c r="D12">
-        <v>1.031898404593629</v>
+        <v>1.030288458526149</v>
       </c>
       <c r="E12">
-        <v>1.021754297535328</v>
+        <v>1.021090292963158</v>
       </c>
       <c r="F12">
-        <v>1.034203951622401</v>
+        <v>1.033198662956379</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.054570481682777</v>
+        <v>1.053695516551514</v>
       </c>
       <c r="J12">
-        <v>1.03877136859351</v>
+        <v>1.037732697831954</v>
       </c>
       <c r="K12">
-        <v>1.046438976716742</v>
+        <v>1.044857509195226</v>
       </c>
       <c r="L12">
-        <v>1.036476259320248</v>
+        <v>1.035824291483632</v>
       </c>
       <c r="M12">
-        <v>1.048703940711015</v>
+        <v>1.047716318616739</v>
       </c>
       <c r="N12">
-        <v>1.016504833013354</v>
+        <v>1.017578599781376</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047924149002299</v>
+        <v>1.047143211922517</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043975387379125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042872714694989</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02428138760697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009917041839904</v>
+        <v>1.008758756739852</v>
       </c>
       <c r="D13">
-        <v>1.032384545649466</v>
+        <v>1.030704246132736</v>
       </c>
       <c r="E13">
-        <v>1.022493898168443</v>
+        <v>1.021760137902704</v>
       </c>
       <c r="F13">
-        <v>1.034951874877736</v>
+        <v>1.033890054759507</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.054849065123171</v>
+        <v>1.053929085553036</v>
       </c>
       <c r="J13">
-        <v>1.039216435865884</v>
+        <v>1.038105717650631</v>
       </c>
       <c r="K13">
-        <v>1.046874498297635</v>
+        <v>1.045223789254502</v>
       </c>
       <c r="L13">
-        <v>1.037159845313577</v>
+        <v>1.036439318101028</v>
       </c>
       <c r="M13">
-        <v>1.04939685655944</v>
+        <v>1.048353600868939</v>
       </c>
       <c r="N13">
-        <v>1.016727386252248</v>
+        <v>1.017695303334919</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048746361467743</v>
+        <v>1.047921637573</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044280846167463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043128970874531</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024397823464601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010859294530437</v>
+        <v>1.009601219070283</v>
       </c>
       <c r="D14">
-        <v>1.033089678837611</v>
+        <v>1.03131617175481</v>
       </c>
       <c r="E14">
-        <v>1.023414575247594</v>
+        <v>1.022606553115119</v>
       </c>
       <c r="F14">
-        <v>1.035842473249893</v>
+        <v>1.034710725092192</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055208942855239</v>
+        <v>1.054228932273092</v>
       </c>
       <c r="J14">
-        <v>1.039822208704118</v>
+        <v>1.0386150515097</v>
       </c>
       <c r="K14">
-        <v>1.047429621938733</v>
+        <v>1.045686954207492</v>
       </c>
       <c r="L14">
-        <v>1.037924443563823</v>
+        <v>1.037130801684646</v>
       </c>
       <c r="M14">
-        <v>1.050134818744762</v>
+        <v>1.049022599592076</v>
       </c>
       <c r="N14">
-        <v>1.016979309205229</v>
+        <v>1.017784739282184</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04950173786249</v>
+        <v>1.048622613515615</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044674734872901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043457976515495</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024519421529495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01135985583204</v>
+        <v>1.01005417014731</v>
       </c>
       <c r="D15">
-        <v>1.033445270844856</v>
+        <v>1.03162728453921</v>
       </c>
       <c r="E15">
-        <v>1.023846000062944</v>
+        <v>1.023006837450027</v>
       </c>
       <c r="F15">
-        <v>1.036250664169142</v>
+        <v>1.035086654670094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.055381353927016</v>
+        <v>1.054372624351396</v>
       </c>
       <c r="J15">
-        <v>1.040119292129005</v>
+        <v>1.038865987794615</v>
       </c>
       <c r="K15">
-        <v>1.047694284719909</v>
+        <v>1.045907670004125</v>
       </c>
       <c r="L15">
-        <v>1.038262293460327</v>
+        <v>1.037437947840075</v>
       </c>
       <c r="M15">
-        <v>1.050451546585562</v>
+        <v>1.049307466789662</v>
       </c>
       <c r="N15">
-        <v>1.017091128185761</v>
+        <v>1.017815472851545</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049789359865119</v>
+        <v>1.048885075645764</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044867652974381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043620393610091</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024571470677014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013945651970425</v>
+        <v>1.012426500722819</v>
       </c>
       <c r="D16">
-        <v>1.03519304703262</v>
+        <v>1.033172321448396</v>
       </c>
       <c r="E16">
-        <v>1.025846055053303</v>
+        <v>1.024885269190926</v>
       </c>
       <c r="F16">
-        <v>1.038098828350566</v>
+        <v>1.036793156552701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056183194389679</v>
+        <v>1.05504395070228</v>
       </c>
       <c r="J16">
-        <v>1.04154163769513</v>
+        <v>1.040080383350847</v>
       </c>
       <c r="K16">
-        <v>1.04891978058714</v>
+        <v>1.046932403846488</v>
       </c>
       <c r="L16">
-        <v>1.039728466632907</v>
+        <v>1.038783890696007</v>
       </c>
       <c r="M16">
-        <v>1.051777899147577</v>
+        <v>1.050493601438436</v>
       </c>
       <c r="N16">
-        <v>1.017566376336727</v>
+        <v>1.017924723158539</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050799275728125</v>
+        <v>1.049784133999383</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04573722593325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04434832311514</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02478250080536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015437259981605</v>
+        <v>1.013816809302733</v>
       </c>
       <c r="D17">
-        <v>1.036165784766104</v>
+        <v>1.034045016461683</v>
       </c>
       <c r="E17">
-        <v>1.026899474189074</v>
+        <v>1.025887427594425</v>
       </c>
       <c r="F17">
-        <v>1.039047357221266</v>
+        <v>1.037674154848964</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05660738408378</v>
+        <v>1.055404438095007</v>
       </c>
       <c r="J17">
-        <v>1.04231486529022</v>
+        <v>1.040754190234631</v>
       </c>
       <c r="K17">
-        <v>1.049568080141715</v>
+        <v>1.047481331686329</v>
       </c>
       <c r="L17">
-        <v>1.04045174268316</v>
+        <v>1.039456286854475</v>
       </c>
       <c r="M17">
-        <v>1.052403713575494</v>
+        <v>1.051052362485181</v>
       </c>
       <c r="N17">
-        <v>1.017798971125081</v>
+        <v>1.017991049483685</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05116590682513</v>
+        <v>1.050097659225309</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04619813978269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044739227216966</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024881620610238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016111352086568</v>
+        <v>1.014466834708473</v>
       </c>
       <c r="D18">
-        <v>1.036537284240387</v>
+        <v>1.034389565316866</v>
       </c>
       <c r="E18">
-        <v>1.027194814858725</v>
+        <v>1.026183201009608</v>
       </c>
       <c r="F18">
-        <v>1.039264280608187</v>
+        <v>1.037876656256373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.056732455581116</v>
+        <v>1.055512834993749</v>
       </c>
       <c r="J18">
-        <v>1.042579211774917</v>
+        <v>1.040994227207103</v>
       </c>
       <c r="K18">
-        <v>1.049753793495103</v>
+        <v>1.047639967029773</v>
       </c>
       <c r="L18">
-        <v>1.040560079547775</v>
+        <v>1.039564781707805</v>
       </c>
       <c r="M18">
-        <v>1.052438014140942</v>
+        <v>1.051072120160645</v>
       </c>
       <c r="N18">
-        <v>1.017831491278155</v>
+        <v>1.017978889742116</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050957436149888</v>
+        <v>1.049877470842758</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046317958842753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044838762250286</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024881927155205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016061128561712</v>
+        <v>1.014453700934201</v>
       </c>
       <c r="D19">
-        <v>1.036383208408232</v>
+        <v>1.03426873472311</v>
       </c>
       <c r="E19">
-        <v>1.026813444762085</v>
+        <v>1.025844180912378</v>
       </c>
       <c r="F19">
-        <v>1.03882846500345</v>
+        <v>1.037469880601646</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056599890525965</v>
+        <v>1.055401811625094</v>
       </c>
       <c r="J19">
-        <v>1.042399637375505</v>
+        <v>1.040850066080647</v>
       </c>
       <c r="K19">
-        <v>1.049540803450386</v>
+        <v>1.047459531531803</v>
       </c>
       <c r="L19">
-        <v>1.04012270472834</v>
+        <v>1.039169004550593</v>
       </c>
       <c r="M19">
-        <v>1.051947879688189</v>
+        <v>1.050610479880981</v>
       </c>
       <c r="N19">
-        <v>1.017695712086968</v>
+        <v>1.017883605154126</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050247639143185</v>
+        <v>1.049189864183951</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046173683160011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044718130797693</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024798815980565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013962885122067</v>
+        <v>1.012561399481861</v>
       </c>
       <c r="D20">
-        <v>1.034739901245097</v>
+        <v>1.032825359392304</v>
       </c>
       <c r="E20">
-        <v>1.024552574070061</v>
+        <v>1.023746080463758</v>
       </c>
       <c r="F20">
-        <v>1.036594796777867</v>
+        <v>1.035387283556514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055738928082906</v>
+        <v>1.054668018801172</v>
       </c>
       <c r="J20">
-        <v>1.040965972795607</v>
+        <v>1.039616542756746</v>
       </c>
       <c r="K20">
-        <v>1.048198210567819</v>
+        <v>1.04631456864135</v>
       </c>
       <c r="L20">
-        <v>1.038177011025652</v>
+        <v>1.037383850920351</v>
       </c>
       <c r="M20">
-        <v>1.050023308451052</v>
+        <v>1.048835177558516</v>
       </c>
       <c r="N20">
-        <v>1.0170807738297</v>
+        <v>1.017540820049512</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048202854356613</v>
+        <v>1.047262583339298</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045228316251413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.0439128855502</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02447788874398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009085063862827</v>
+        <v>1.008121333886324</v>
       </c>
       <c r="D21">
-        <v>1.031385736390267</v>
+        <v>1.029884142545766</v>
       </c>
       <c r="E21">
-        <v>1.020608834343462</v>
+        <v>1.020087803988203</v>
       </c>
       <c r="F21">
-        <v>1.032937313894792</v>
+        <v>1.032029982772361</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054171158011251</v>
+        <v>1.053366189210792</v>
       </c>
       <c r="J21">
-        <v>1.038207792646919</v>
+        <v>1.037283386444433</v>
       </c>
       <c r="K21">
-        <v>1.045795932686855</v>
+        <v>1.044320638219465</v>
       </c>
       <c r="L21">
-        <v>1.03521000943074</v>
+        <v>1.034698345209866</v>
       </c>
       <c r="M21">
-        <v>1.047320439379343</v>
+        <v>1.046428925922235</v>
       </c>
       <c r="N21">
-        <v>1.016114203713557</v>
+        <v>1.017333795114278</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046023323326509</v>
+        <v>1.045317755213375</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04353304968502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042506660902758</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024051072617234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005973507349986</v>
+        <v>1.005285990119986</v>
       </c>
       <c r="D22">
-        <v>1.029257040993342</v>
+        <v>1.028016119963299</v>
       </c>
       <c r="E22">
-        <v>1.01813515995982</v>
+        <v>1.017797315664788</v>
       </c>
       <c r="F22">
-        <v>1.030648955047618</v>
+        <v>1.029931664620302</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.05316740772215</v>
+        <v>1.052529704818482</v>
       </c>
       <c r="J22">
-        <v>1.036453737788622</v>
+        <v>1.03579591623609</v>
       </c>
       <c r="K22">
-        <v>1.044270368263287</v>
+        <v>1.043052279336096</v>
       </c>
       <c r="L22">
-        <v>1.033355717846258</v>
+        <v>1.033024261141159</v>
       </c>
       <c r="M22">
-        <v>1.045636757233998</v>
+        <v>1.044932609341443</v>
       </c>
       <c r="N22">
-        <v>1.015501950245926</v>
+        <v>1.017196498425019</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044690810695818</v>
+        <v>1.044133527853823</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042441084896659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041595246544052</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023779557220461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007616154054877</v>
+        <v>1.006768869489052</v>
       </c>
       <c r="D23">
-        <v>1.030374976940224</v>
+        <v>1.028986467568755</v>
       </c>
       <c r="E23">
-        <v>1.019438403086688</v>
+        <v>1.018994860674312</v>
       </c>
       <c r="F23">
-        <v>1.031855001215038</v>
+        <v>1.031029492615608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053693820034157</v>
+        <v>1.052960650695446</v>
       </c>
       <c r="J23">
-        <v>1.037374792035047</v>
+        <v>1.036563025478695</v>
       </c>
       <c r="K23">
-        <v>1.045068342494093</v>
+        <v>1.043704727607627</v>
       </c>
       <c r="L23">
-        <v>1.034330242523574</v>
+        <v>1.033894866535577</v>
       </c>
       <c r="M23">
-        <v>1.046521927285407</v>
+        <v>1.045711153599209</v>
       </c>
       <c r="N23">
-        <v>1.01582006950539</v>
+        <v>1.01721999660981</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045391359065396</v>
+        <v>1.044749690088647</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042995747437054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042046072616399</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023915103370415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013970434074729</v>
+        <v>1.01257374574158</v>
       </c>
       <c r="D24">
-        <v>1.034720047833064</v>
+        <v>1.032809330325781</v>
       </c>
       <c r="E24">
-        <v>1.024510576328988</v>
+        <v>1.023710612844838</v>
       </c>
       <c r="F24">
-        <v>1.036544766467885</v>
+        <v>1.035341339513728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055718183687061</v>
+        <v>1.054649875167937</v>
       </c>
       <c r="J24">
-        <v>1.04094111049864</v>
+        <v>1.039596225554148</v>
       </c>
       <c r="K24">
-        <v>1.048163692628406</v>
+        <v>1.046283775320167</v>
       </c>
       <c r="L24">
-        <v>1.038120509900676</v>
+        <v>1.037333756309069</v>
       </c>
       <c r="M24">
-        <v>1.049959133260662</v>
+        <v>1.048775000688013</v>
       </c>
       <c r="N24">
-        <v>1.017057658499836</v>
+        <v>1.017522288864715</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048111653813812</v>
+        <v>1.047174501443819</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045176845576484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043861367407766</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024461778178902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021083008313363</v>
+        <v>1.019271731860072</v>
       </c>
       <c r="D25">
-        <v>1.039605775660681</v>
+        <v>1.037251185257939</v>
       </c>
       <c r="E25">
-        <v>1.030243769558828</v>
+        <v>1.029176146981387</v>
       </c>
       <c r="F25">
-        <v>1.041838540366914</v>
+        <v>1.040328465473756</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057943448403609</v>
+        <v>1.056601021177393</v>
       </c>
       <c r="J25">
-        <v>1.044921096584245</v>
+        <v>1.04316748723851</v>
       </c>
       <c r="K25">
-        <v>1.051618870796845</v>
+        <v>1.049297492207752</v>
       </c>
       <c r="L25">
-        <v>1.042390054571888</v>
+        <v>1.041337815679188</v>
       </c>
       <c r="M25">
-        <v>1.053820317143345</v>
+        <v>1.052331405059197</v>
       </c>
       <c r="N25">
-        <v>1.018438873771683</v>
+        <v>1.018444850513448</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051167483866402</v>
+        <v>1.04998912595841</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047616946227425</v>
+        <v>1.045989030608981</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025116692481095</v>
       </c>
     </row>
   </sheetData>
